--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4327,28 +4327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9673.223560534188</v>
+        <v>9881.342652425217</v>
       </c>
       <c r="AB2" t="n">
-        <v>13235.33122802844</v>
+        <v>13520.08895112009</v>
       </c>
       <c r="AC2" t="n">
-        <v>11972.16979152896</v>
+        <v>12229.7506371887</v>
       </c>
       <c r="AD2" t="n">
-        <v>9673223.560534189</v>
+        <v>9881342.652425217</v>
       </c>
       <c r="AE2" t="n">
-        <v>13235331.22802844</v>
+        <v>13520088.9511201</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.174520643616316e-07</v>
+        <v>8.747783888090143e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.15694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>11972169.79152896</v>
+        <v>12229750.6371887</v>
       </c>
     </row>
     <row r="3">
@@ -4433,28 +4433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3212.247796271726</v>
+        <v>3326.721781667543</v>
       </c>
       <c r="AB3" t="n">
-        <v>4395.139149230299</v>
+        <v>4551.767506284674</v>
       </c>
       <c r="AC3" t="n">
-        <v>3975.673237444132</v>
+        <v>4117.353203930511</v>
       </c>
       <c r="AD3" t="n">
-        <v>3212247.796271726</v>
+        <v>3326721.781667543</v>
       </c>
       <c r="AE3" t="n">
-        <v>4395139.1492303</v>
+        <v>4551767.506284674</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.752373978735572e-07</v>
+        <v>1.648687208680085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.77638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3975673.237444132</v>
+        <v>4117353.203930511</v>
       </c>
     </row>
     <row r="4">
@@ -4539,28 +4539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2462.654215152122</v>
+        <v>2556.38457299335</v>
       </c>
       <c r="AB4" t="n">
-        <v>3369.512141807546</v>
+        <v>3497.758152497468</v>
       </c>
       <c r="AC4" t="n">
-        <v>3047.930632133299</v>
+        <v>3163.937023557377</v>
       </c>
       <c r="AD4" t="n">
-        <v>2462654.215152122</v>
+        <v>2556384.57299335</v>
       </c>
       <c r="AE4" t="n">
-        <v>3369512.141807545</v>
+        <v>3497758.152497468</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.142566836222244e-06</v>
+        <v>1.9315659264596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3047930.632133299</v>
+        <v>3163937.023557377</v>
       </c>
     </row>
     <row r="5">
@@ -4645,28 +4645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2170.865969367039</v>
+        <v>2254.096591657667</v>
       </c>
       <c r="AB5" t="n">
-        <v>2970.274591135312</v>
+        <v>3084.154400429435</v>
       </c>
       <c r="AC5" t="n">
-        <v>2686.795752963929</v>
+        <v>2789.807033090221</v>
       </c>
       <c r="AD5" t="n">
-        <v>2170865.969367039</v>
+        <v>2254096.591657667</v>
       </c>
       <c r="AE5" t="n">
-        <v>2970274.591135312</v>
+        <v>3084154.400429435</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.229951608297975e-06</v>
+        <v>2.079294219354046e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.475</v>
       </c>
       <c r="AH5" t="n">
-        <v>2686795.752963929</v>
+        <v>2789807.033090221</v>
       </c>
     </row>
     <row r="6">
@@ -4751,28 +4751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1996.450210249944</v>
+        <v>2079.76608388659</v>
       </c>
       <c r="AB6" t="n">
-        <v>2731.631254831074</v>
+        <v>2845.627708777665</v>
       </c>
       <c r="AC6" t="n">
-        <v>2470.928201738542</v>
+        <v>2574.044994115498</v>
       </c>
       <c r="AD6" t="n">
-        <v>1996450.210249944</v>
+        <v>2079766.08388659</v>
       </c>
       <c r="AE6" t="n">
-        <v>2731631.254831074</v>
+        <v>2845627.708777665</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.286554766170067e-06</v>
+        <v>2.174984666170481e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.74861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>2470928.201738541</v>
+        <v>2574044.994115498</v>
       </c>
     </row>
     <row r="7">
@@ -4857,28 +4857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1890.171009323407</v>
+        <v>1973.316290759461</v>
       </c>
       <c r="AB7" t="n">
-        <v>2586.215363415954</v>
+        <v>2699.978405587698</v>
       </c>
       <c r="AC7" t="n">
-        <v>2339.390598907595</v>
+        <v>2442.2962560019</v>
       </c>
       <c r="AD7" t="n">
-        <v>1890171.009323407</v>
+        <v>1973316.290759461</v>
       </c>
       <c r="AE7" t="n">
-        <v>2586215.363415954</v>
+        <v>2699978.405587698</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.324338832893965e-06</v>
+        <v>2.238860505669082e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.29861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2339390.598907595</v>
+        <v>2442296.2560019</v>
       </c>
     </row>
     <row r="8">
@@ -4963,28 +4963,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1798.320111401483</v>
+        <v>1881.550644183558</v>
       </c>
       <c r="AB8" t="n">
-        <v>2460.54091270355</v>
+        <v>2574.420599527944</v>
       </c>
       <c r="AC8" t="n">
-        <v>2225.710341385984</v>
+        <v>2328.721510731002</v>
       </c>
       <c r="AD8" t="n">
-        <v>1798320.111401483</v>
+        <v>1881550.644183558</v>
       </c>
       <c r="AE8" t="n">
-        <v>2460540.91270355</v>
+        <v>2574420.599527944</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.352056874119989e-06</v>
+        <v>2.285719229625583e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.98611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>2225710.341385983</v>
+        <v>2328721.510731002</v>
       </c>
     </row>
     <row r="9">
@@ -5069,28 +5069,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1732.052843745097</v>
+        <v>1815.283376527172</v>
       </c>
       <c r="AB9" t="n">
-        <v>2369.871113590564</v>
+        <v>2483.750800414959</v>
       </c>
       <c r="AC9" t="n">
-        <v>2143.693940644479</v>
+        <v>2246.705109989497</v>
       </c>
       <c r="AD9" t="n">
-        <v>1732052.843745097</v>
+        <v>1815283.376527172</v>
       </c>
       <c r="AE9" t="n">
-        <v>2369871.113590564</v>
+        <v>2483750.800414959</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.374085422673304e-06</v>
+        <v>2.322959583927856e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.74583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2143693.940644478</v>
+        <v>2246705.109989496</v>
       </c>
     </row>
     <row r="10">
@@ -5175,28 +5175,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1674.313109773339</v>
+        <v>1757.543642555414</v>
       </c>
       <c r="AB10" t="n">
-        <v>2290.869062273121</v>
+        <v>2404.748749097515</v>
       </c>
       <c r="AC10" t="n">
-        <v>2072.231734224697</v>
+        <v>2175.242903569715</v>
       </c>
       <c r="AD10" t="n">
-        <v>1674313.109773339</v>
+        <v>1757543.642555414</v>
       </c>
       <c r="AE10" t="n">
-        <v>2290869.062273121</v>
+        <v>2404748.749097515</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.391591553973951e-06</v>
+        <v>2.352554567479331e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.56111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>2072231.734224697</v>
+        <v>2175242.903569715</v>
       </c>
     </row>
     <row r="11">
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1658.704169148062</v>
+        <v>1741.934701930137</v>
       </c>
       <c r="AB11" t="n">
-        <v>2269.512221091758</v>
+        <v>2383.391907916151</v>
       </c>
       <c r="AC11" t="n">
-        <v>2052.913159991168</v>
+        <v>2155.924329336186</v>
       </c>
       <c r="AD11" t="n">
-        <v>1658704.169148062</v>
+        <v>1741934.701930137</v>
       </c>
       <c r="AE11" t="n">
-        <v>2269512.221091758</v>
+        <v>2383391.907916151</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.390132709698897e-06</v>
+        <v>2.350088318850042e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.575</v>
       </c>
       <c r="AH11" t="n">
-        <v>2052913.159991168</v>
+        <v>2155924.329336185</v>
       </c>
     </row>
     <row r="12">
@@ -5387,28 +5387,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1582.780940657617</v>
+        <v>1655.597078743662</v>
       </c>
       <c r="AB12" t="n">
-        <v>2165.630710374684</v>
+        <v>2265.260962925302</v>
       </c>
       <c r="AC12" t="n">
-        <v>1958.945954858316</v>
+        <v>2049.067635937441</v>
       </c>
       <c r="AD12" t="n">
-        <v>1582780.940657617</v>
+        <v>1655597.078743662</v>
       </c>
       <c r="AE12" t="n">
-        <v>2165630.710374684</v>
+        <v>2265260.962925302</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.412744795962233e-06</v>
+        <v>2.38831517260403e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.34166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1958945.954858316</v>
+        <v>2049067.635937441</v>
       </c>
     </row>
     <row r="13">
@@ -5493,28 +5493,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1538.274369094848</v>
+        <v>1611.090507180893</v>
       </c>
       <c r="AB13" t="n">
-        <v>2104.734855671144</v>
+        <v>2204.365108221762</v>
       </c>
       <c r="AC13" t="n">
-        <v>1903.861915059812</v>
+        <v>1993.983596138937</v>
       </c>
       <c r="AD13" t="n">
-        <v>1538274.369094848</v>
+        <v>1611090.507180893</v>
       </c>
       <c r="AE13" t="n">
-        <v>2104734.855671144</v>
+        <v>2204365.108221761</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.4226649370326e-06</v>
+        <v>2.405085663283199e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.24166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1903861.915059812</v>
+        <v>1993983.596138937</v>
       </c>
     </row>
     <row r="14">
@@ -5599,28 +5599,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1513.100935377943</v>
+        <v>1585.917073463988</v>
       </c>
       <c r="AB14" t="n">
-        <v>2070.291453086159</v>
+        <v>2169.921705636777</v>
       </c>
       <c r="AC14" t="n">
-        <v>1872.705742475919</v>
+        <v>1962.827423555044</v>
       </c>
       <c r="AD14" t="n">
-        <v>1513100.935377943</v>
+        <v>1585917.073463988</v>
       </c>
       <c r="AE14" t="n">
-        <v>2070291.453086159</v>
+        <v>2169921.705636777</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.42835442970531e-06</v>
+        <v>2.414704032937428e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.18611111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1872705.742475919</v>
+        <v>1962827.423555044</v>
       </c>
     </row>
     <row r="15">
@@ -5705,28 +5705,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1516.972637918346</v>
+        <v>1589.788776004391</v>
       </c>
       <c r="AB15" t="n">
-        <v>2075.588887309399</v>
+        <v>2175.219139860017</v>
       </c>
       <c r="AC15" t="n">
-        <v>1877.497597011889</v>
+        <v>1967.619278091014</v>
       </c>
       <c r="AD15" t="n">
-        <v>1516972.637918346</v>
+        <v>1589788.776004391</v>
       </c>
       <c r="AE15" t="n">
-        <v>2075588.887309399</v>
+        <v>2175219.139860017</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.427770891995289e-06</v>
+        <v>2.413717533485713e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.19166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1877497.597011889</v>
+        <v>1967619.278091014</v>
       </c>
     </row>
     <row r="16">
@@ -5811,28 +5811,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1520.563839061052</v>
+        <v>1593.379977147097</v>
       </c>
       <c r="AB16" t="n">
-        <v>2080.502527145462</v>
+        <v>2180.13277969608</v>
       </c>
       <c r="AC16" t="n">
-        <v>1881.942285958335</v>
+        <v>1972.06396703746</v>
       </c>
       <c r="AD16" t="n">
-        <v>1520563.839061052</v>
+        <v>1593379.977147097</v>
       </c>
       <c r="AE16" t="n">
-        <v>2080502.527145462</v>
+        <v>2180132.77969608</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.429229736270343e-06</v>
+        <v>2.416183782115002e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.17638888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>1881942.285958335</v>
+        <v>1972063.96703746</v>
       </c>
     </row>
   </sheetData>
@@ -6108,28 +6108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5792.168771512181</v>
+        <v>5953.532516159373</v>
       </c>
       <c r="AB2" t="n">
-        <v>7925.100845635044</v>
+        <v>8145.885839927331</v>
       </c>
       <c r="AC2" t="n">
-        <v>7168.74034387623</v>
+        <v>7368.453928186942</v>
       </c>
       <c r="AD2" t="n">
-        <v>5792168.771512181</v>
+        <v>5953532.516159372</v>
       </c>
       <c r="AE2" t="n">
-        <v>7925100.845635043</v>
+        <v>8145885.839927332</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.81684858235125e-07</v>
+        <v>1.180535707428978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>7168740.343876231</v>
+        <v>7368453.928186942</v>
       </c>
     </row>
     <row r="3">
@@ -6214,28 +6214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2517.537743595378</v>
+        <v>2608.352943698671</v>
       </c>
       <c r="AB3" t="n">
-        <v>3444.606206714002</v>
+        <v>3568.863569979198</v>
       </c>
       <c r="AC3" t="n">
-        <v>3115.857824880262</v>
+        <v>3228.256239791729</v>
       </c>
       <c r="AD3" t="n">
-        <v>2517537.743595378</v>
+        <v>2608352.943698671</v>
       </c>
       <c r="AE3" t="n">
-        <v>3444606.206714002</v>
+        <v>3568863.569979198</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.101531498839534e-06</v>
+        <v>1.907622344149681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.02777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3115857.824880262</v>
+        <v>3228256.239791729</v>
       </c>
     </row>
     <row r="4">
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2003.859347571664</v>
+        <v>2094.589117311833</v>
       </c>
       <c r="AB4" t="n">
-        <v>2741.768763382721</v>
+        <v>2865.909237056165</v>
       </c>
       <c r="AC4" t="n">
-        <v>2480.098200702102</v>
+        <v>2592.390881800401</v>
       </c>
       <c r="AD4" t="n">
-        <v>2003859.347571664</v>
+        <v>2094589.117311834</v>
       </c>
       <c r="AE4" t="n">
-        <v>2741768.763382721</v>
+        <v>2865909.237056165</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.252597813449532e-06</v>
+        <v>2.169237629324887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2480098.200702101</v>
+        <v>2592390.881800401</v>
       </c>
     </row>
     <row r="5">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1786.445705234415</v>
+        <v>1867.170247985296</v>
       </c>
       <c r="AB5" t="n">
-        <v>2444.29382632394</v>
+        <v>2554.744707031176</v>
       </c>
       <c r="AC5" t="n">
-        <v>2211.013854127514</v>
+        <v>2310.923457798837</v>
       </c>
       <c r="AD5" t="n">
-        <v>1786445.705234415</v>
+        <v>1867170.247985296</v>
       </c>
       <c r="AE5" t="n">
-        <v>2444293.82632394</v>
+        <v>2554744.707031176</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.331224736438352e-06</v>
+        <v>2.305403027502992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.74444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>2211013.854127514</v>
+        <v>2310923.457798837</v>
       </c>
     </row>
     <row r="6">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1661.644013078561</v>
+        <v>1742.197963628849</v>
       </c>
       <c r="AB6" t="n">
-        <v>2273.534645254225</v>
+        <v>2383.752114186615</v>
       </c>
       <c r="AC6" t="n">
-        <v>2056.551689637078</v>
+        <v>2156.250158025749</v>
       </c>
       <c r="AD6" t="n">
-        <v>1661644.013078561</v>
+        <v>1742197.963628849</v>
       </c>
       <c r="AE6" t="n">
-        <v>2273534.645254225</v>
+        <v>2383752.114186615</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.379970410383437e-06</v>
+        <v>2.389820347294791e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.19027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2056551.689637078</v>
+        <v>2156250.158025749</v>
       </c>
     </row>
     <row r="7">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1561.49929804294</v>
+        <v>1642.138499939249</v>
       </c>
       <c r="AB7" t="n">
-        <v>2136.512228069475</v>
+        <v>2246.846341654514</v>
       </c>
       <c r="AC7" t="n">
-        <v>1932.606499636268</v>
+        <v>2032.410480275652</v>
       </c>
       <c r="AD7" t="n">
-        <v>1561499.29804294</v>
+        <v>1642138.499939249</v>
       </c>
       <c r="AE7" t="n">
-        <v>2136512.228069475</v>
+        <v>2246846.341654513</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413322713609021e-06</v>
+        <v>2.447579566099707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.83055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1932606.499636268</v>
+        <v>2032410.480275652</v>
       </c>
     </row>
     <row r="8">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1484.670539017644</v>
+        <v>1565.309740913953</v>
       </c>
       <c r="AB8" t="n">
-        <v>2031.391730525431</v>
+        <v>2141.72584411047</v>
       </c>
       <c r="AC8" t="n">
-        <v>1837.518554840284</v>
+        <v>1937.322535479668</v>
       </c>
       <c r="AD8" t="n">
-        <v>1484670.539017644</v>
+        <v>1565309.740913953</v>
       </c>
       <c r="AE8" t="n">
-        <v>2031391.730525431</v>
+        <v>2141725.84411047</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439280162273276e-06</v>
+        <v>2.492532442273668e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.5625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1837518.554840283</v>
+        <v>1937322.535479668</v>
       </c>
     </row>
     <row r="9">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1400.502193275666</v>
+        <v>1471.050916836666</v>
       </c>
       <c r="AB9" t="n">
-        <v>1916.228886635911</v>
+        <v>2012.756762602093</v>
       </c>
       <c r="AC9" t="n">
-        <v>1733.346691139513</v>
+        <v>1820.662082101207</v>
       </c>
       <c r="AD9" t="n">
-        <v>1400502.193275666</v>
+        <v>1471050.916836666</v>
       </c>
       <c r="AE9" t="n">
-        <v>1916228.886635911</v>
+        <v>2012756.762602093</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.466444934131218e-06</v>
+        <v>2.539576149897581e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.29305555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>1733346.691139513</v>
+        <v>1820662.082101207</v>
       </c>
     </row>
     <row r="10">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1377.445808252951</v>
+        <v>1447.994531813952</v>
       </c>
       <c r="AB10" t="n">
-        <v>1884.682123471914</v>
+        <v>1981.209999438097</v>
       </c>
       <c r="AC10" t="n">
-        <v>1704.810706775728</v>
+        <v>1792.126097737423</v>
       </c>
       <c r="AD10" t="n">
-        <v>1377445.808252951</v>
+        <v>1447994.531813952</v>
       </c>
       <c r="AE10" t="n">
-        <v>1884682.123471914</v>
+        <v>1981209.999438097</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.467350426526483e-06</v>
+        <v>2.541144273485045e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.28472222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1704810.706775728</v>
+        <v>1792126.097737423</v>
       </c>
     </row>
     <row r="11">
@@ -7062,28 +7062,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1372.09643341861</v>
+        <v>1442.64515697961</v>
       </c>
       <c r="AB11" t="n">
-        <v>1877.362872825807</v>
+        <v>1973.890748791989</v>
       </c>
       <c r="AC11" t="n">
-        <v>1698.189995138652</v>
+        <v>1785.505386100347</v>
       </c>
       <c r="AD11" t="n">
-        <v>1372096.43341861</v>
+        <v>1442645.15697961</v>
       </c>
       <c r="AE11" t="n">
-        <v>1877362.872825807</v>
+        <v>1973890.748791989</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.47067056530912e-06</v>
+        <v>2.546894059972413e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.25277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1698189.995138652</v>
+        <v>1785505.386100347</v>
       </c>
     </row>
     <row r="12">
@@ -7168,28 +7168,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1378.887609088208</v>
+        <v>1449.436332649208</v>
       </c>
       <c r="AB12" t="n">
-        <v>1886.654858982475</v>
+        <v>1983.182734948658</v>
       </c>
       <c r="AC12" t="n">
-        <v>1706.595167177912</v>
+        <v>1793.910558139607</v>
       </c>
       <c r="AD12" t="n">
-        <v>1378887.609088208</v>
+        <v>1449436.332649208</v>
       </c>
       <c r="AE12" t="n">
-        <v>1886654.858982475</v>
+        <v>1983182.734948658</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.470519649909909e-06</v>
+        <v>2.546632706041169e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.25277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1706595.167177912</v>
+        <v>1793910.558139607</v>
       </c>
     </row>
   </sheetData>
@@ -7465,28 +7465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1855.715190135287</v>
+        <v>1946.86884626244</v>
       </c>
       <c r="AB2" t="n">
-        <v>2539.071391519308</v>
+        <v>2663.79184524797</v>
       </c>
       <c r="AC2" t="n">
-        <v>2296.745981521785</v>
+        <v>2409.56329019284</v>
       </c>
       <c r="AD2" t="n">
-        <v>1855715.190135287</v>
+        <v>1946868.846262441</v>
       </c>
       <c r="AE2" t="n">
-        <v>2539071.391519308</v>
+        <v>2663791.84524797</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.194458366473544e-06</v>
+        <v>2.260172264528835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.58055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2296745.981521785</v>
+        <v>2409563.29019284</v>
       </c>
     </row>
     <row r="3">
@@ -7571,28 +7571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1194.332961905391</v>
+        <v>1267.255886807114</v>
       </c>
       <c r="AB3" t="n">
-        <v>1634.139048730545</v>
+        <v>1733.915411713475</v>
       </c>
       <c r="AC3" t="n">
-        <v>1478.179111448261</v>
+        <v>1568.432958385105</v>
       </c>
       <c r="AD3" t="n">
-        <v>1194332.961905391</v>
+        <v>1267255.886807114</v>
       </c>
       <c r="AE3" t="n">
-        <v>1634139.048730545</v>
+        <v>1733915.411713475</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.49218886018921e-06</v>
+        <v>2.823542427180319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.675</v>
       </c>
       <c r="AH3" t="n">
-        <v>1478179.111448261</v>
+        <v>1568432.958385105</v>
       </c>
     </row>
     <row r="4">
@@ -7677,28 +7677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1040.07474863658</v>
+        <v>1112.912332683731</v>
       </c>
       <c r="AB4" t="n">
-        <v>1423.076155944088</v>
+        <v>1522.73575180482</v>
       </c>
       <c r="AC4" t="n">
-        <v>1287.259764920713</v>
+        <v>1377.407988825618</v>
       </c>
       <c r="AD4" t="n">
-        <v>1040074.74863658</v>
+        <v>1112912.332683731</v>
       </c>
       <c r="AE4" t="n">
-        <v>1423076.155944088</v>
+        <v>1522735.75180482</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.572178670435218e-06</v>
+        <v>2.974900361150599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.87638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1287259.764920712</v>
+        <v>1377407.988825618</v>
       </c>
     </row>
     <row r="5">
@@ -7783,28 +7783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1047.587274840792</v>
+        <v>1120.424858887943</v>
       </c>
       <c r="AB5" t="n">
-        <v>1433.355125725956</v>
+        <v>1533.014721586688</v>
       </c>
       <c r="AC5" t="n">
-        <v>1296.557724253224</v>
+        <v>1386.705948158129</v>
       </c>
       <c r="AD5" t="n">
-        <v>1047587.274840792</v>
+        <v>1120424.858887943</v>
       </c>
       <c r="AE5" t="n">
-        <v>1433355.125725956</v>
+        <v>1533014.721586688</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.5720102708347e-06</v>
+        <v>2.974581712868557e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.87916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1296557.724253224</v>
+        <v>1386705.948158129</v>
       </c>
     </row>
   </sheetData>
@@ -8080,28 +8080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2800.224644199178</v>
+        <v>2914.098872692277</v>
       </c>
       <c r="AB2" t="n">
-        <v>3831.39089538602</v>
+        <v>3987.198638586686</v>
       </c>
       <c r="AC2" t="n">
-        <v>3465.728325721128</v>
+        <v>3606.665996588258</v>
       </c>
       <c r="AD2" t="n">
-        <v>2800224.644199179</v>
+        <v>2914098.872692277</v>
       </c>
       <c r="AE2" t="n">
-        <v>3831390.89538602</v>
+        <v>3987198.638586686</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.890085795913568e-07</v>
+        <v>1.801758844294688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3465728.325721128</v>
+        <v>3606665.996588258</v>
       </c>
     </row>
     <row r="3">
@@ -8186,28 +8186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1620.262711258307</v>
+        <v>1705.647047414487</v>
       </c>
       <c r="AB3" t="n">
-        <v>2216.914922489564</v>
+        <v>2333.741538109507</v>
       </c>
       <c r="AC3" t="n">
-        <v>2005.335673746795</v>
+        <v>2111.012521139156</v>
       </c>
       <c r="AD3" t="n">
-        <v>1620262.711258307</v>
+        <v>1705647.047414487</v>
       </c>
       <c r="AE3" t="n">
-        <v>2216914.922489564</v>
+        <v>2333741.538109507</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.335540173450456e-06</v>
+        <v>2.433064150383282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.75277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2005335.673746795</v>
+        <v>2111012.521139156</v>
       </c>
     </row>
     <row r="4">
@@ -8292,28 +8292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1355.520128158325</v>
+        <v>1431.322582189512</v>
       </c>
       <c r="AB4" t="n">
-        <v>1854.682440673709</v>
+        <v>1958.398702447432</v>
       </c>
       <c r="AC4" t="n">
-        <v>1677.674151598964</v>
+        <v>1771.491878915691</v>
       </c>
       <c r="AD4" t="n">
-        <v>1355520.128158325</v>
+        <v>1431322.582189512</v>
       </c>
       <c r="AE4" t="n">
-        <v>1854682.440673709</v>
+        <v>1958398.702447432</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.456044883913778e-06</v>
+        <v>2.652597562263462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1677674.151598964</v>
+        <v>1771491.878915691</v>
       </c>
     </row>
     <row r="5">
@@ -8398,28 +8398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1204.483769267376</v>
+        <v>1280.371474644584</v>
       </c>
       <c r="AB5" t="n">
-        <v>1648.027831185227</v>
+        <v>1751.860737611599</v>
       </c>
       <c r="AC5" t="n">
-        <v>1490.742367998496</v>
+        <v>1584.665607565935</v>
       </c>
       <c r="AD5" t="n">
-        <v>1204483.769267376</v>
+        <v>1280371.474644584</v>
       </c>
       <c r="AE5" t="n">
-        <v>1648027.831185227</v>
+        <v>1751860.737611599</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.520002597889632e-06</v>
+        <v>2.769114627125001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.72083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1490742.367998496</v>
+        <v>1584665.607565935</v>
       </c>
     </row>
     <row r="6">
@@ -8504,28 +8504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1157.728248408934</v>
+        <v>1233.615953786142</v>
       </c>
       <c r="AB6" t="n">
-        <v>1584.054864838705</v>
+        <v>1687.887771265077</v>
       </c>
       <c r="AC6" t="n">
-        <v>1432.874891773464</v>
+        <v>1526.798131340903</v>
       </c>
       <c r="AD6" t="n">
-        <v>1157728.248408934</v>
+        <v>1233615.953786141</v>
       </c>
       <c r="AE6" t="n">
-        <v>1584054.864838705</v>
+        <v>1687887.771265077</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.538207186502407e-06</v>
+        <v>2.802279433999948e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.54583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1432874.891773464</v>
+        <v>1526798.131340903</v>
       </c>
     </row>
     <row r="7">
@@ -8610,28 +8610,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1162.078168769666</v>
+        <v>1237.965874146874</v>
       </c>
       <c r="AB7" t="n">
-        <v>1590.006617781201</v>
+        <v>1693.839524207573</v>
       </c>
       <c r="AC7" t="n">
-        <v>1438.258617768467</v>
+        <v>1532.181857335905</v>
       </c>
       <c r="AD7" t="n">
-        <v>1162078.168769666</v>
+        <v>1237965.874146874</v>
       </c>
       <c r="AE7" t="n">
-        <v>1590006.617781201</v>
+        <v>1693839.524207573</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.53981821204336e-06</v>
+        <v>2.805214372661448e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.53055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1438258.617768467</v>
+        <v>1532181.857335905</v>
       </c>
     </row>
   </sheetData>
@@ -8907,28 +8907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1308.641311847373</v>
+        <v>1387.865161550979</v>
       </c>
       <c r="AB2" t="n">
-        <v>1790.540776049651</v>
+        <v>1898.938342323701</v>
       </c>
       <c r="AC2" t="n">
-        <v>1619.654077423234</v>
+        <v>1717.706332109029</v>
       </c>
       <c r="AD2" t="n">
-        <v>1308641.311847373</v>
+        <v>1387865.161550979</v>
       </c>
       <c r="AE2" t="n">
-        <v>1790540.776049651</v>
+        <v>1898938.342323701</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.375216327384373e-06</v>
+        <v>2.694980906329542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.66388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1619654.077423234</v>
+        <v>1717706.332109029</v>
       </c>
     </row>
     <row r="3">
@@ -9013,28 +9013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>963.5372515786362</v>
+        <v>1033.787859114583</v>
       </c>
       <c r="AB3" t="n">
-        <v>1318.354175873348</v>
+        <v>1414.474156342101</v>
       </c>
       <c r="AC3" t="n">
-        <v>1192.532303649701</v>
+        <v>1279.478728087757</v>
       </c>
       <c r="AD3" t="n">
-        <v>963537.2515786362</v>
+        <v>1033787.859114583</v>
       </c>
       <c r="AE3" t="n">
-        <v>1318354.175873348</v>
+        <v>1414474.156342101</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582294558545902e-06</v>
+        <v>3.100787518703213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.35277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1192532.303649701</v>
+        <v>1279478.728087757</v>
       </c>
     </row>
     <row r="4">
@@ -9119,28 +9119,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>970.8374336437115</v>
+        <v>1041.088041179658</v>
       </c>
       <c r="AB4" t="n">
-        <v>1328.342607036086</v>
+        <v>1424.462587504839</v>
       </c>
       <c r="AC4" t="n">
-        <v>1201.56745296112</v>
+        <v>1288.513877399175</v>
       </c>
       <c r="AD4" t="n">
-        <v>970837.4336437115</v>
+        <v>1041088.041179658</v>
       </c>
       <c r="AE4" t="n">
-        <v>1328342.607036086</v>
+        <v>1424462.587504839</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.583518838628783e-06</v>
+        <v>3.103186713202044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.34027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1201567.45296112</v>
+        <v>1288513.877399175</v>
       </c>
     </row>
   </sheetData>
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6555.175796927803</v>
+        <v>6728.077466403506</v>
       </c>
       <c r="AB2" t="n">
-        <v>8969.080719303009</v>
+        <v>9205.652411362986</v>
       </c>
       <c r="AC2" t="n">
-        <v>8113.084243636241</v>
+        <v>8327.07786543646</v>
       </c>
       <c r="AD2" t="n">
-        <v>6555175.796927803</v>
+        <v>6728077.466403506</v>
       </c>
       <c r="AE2" t="n">
-        <v>8969080.719303008</v>
+        <v>9205652.411362985</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.381713978122528e-07</v>
+        <v>1.097961896965532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.54861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>8113084.243636241</v>
+        <v>8327077.86543646</v>
       </c>
     </row>
     <row r="3">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2680.482002641927</v>
+        <v>2782.068475341495</v>
       </c>
       <c r="AB3" t="n">
-        <v>3667.553730534865</v>
+        <v>3806.548824161297</v>
       </c>
       <c r="AC3" t="n">
-        <v>3317.527549936469</v>
+        <v>3443.257146908028</v>
       </c>
       <c r="AD3" t="n">
-        <v>2680482.002641927</v>
+        <v>2782068.475341495</v>
       </c>
       <c r="AE3" t="n">
-        <v>3667553.730534865</v>
+        <v>3806548.824161297</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.067706962498634e-06</v>
+        <v>1.836969763870853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.45416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3317527.549936469</v>
+        <v>3443257.146908028</v>
       </c>
     </row>
     <row r="4">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2114.386254154795</v>
+        <v>2205.882271710371</v>
       </c>
       <c r="AB4" t="n">
-        <v>2892.996553072741</v>
+        <v>3018.185440811865</v>
       </c>
       <c r="AC4" t="n">
-        <v>2616.893022393642</v>
+        <v>2730.134058390537</v>
       </c>
       <c r="AD4" t="n">
-        <v>2114386.254154795</v>
+        <v>2205882.271710371</v>
       </c>
       <c r="AE4" t="n">
-        <v>2892996.553072741</v>
+        <v>3018185.440811865</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.223099529249731e-06</v>
+        <v>2.104319754718565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.98333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2616893.022393642</v>
+        <v>2730134.058390537</v>
       </c>
     </row>
     <row r="5">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1874.870702426765</v>
+        <v>1966.281379127767</v>
       </c>
       <c r="AB5" t="n">
-        <v>2565.280808518067</v>
+        <v>2690.352929134817</v>
       </c>
       <c r="AC5" t="n">
-        <v>2320.45400854733</v>
+        <v>2433.58942151224</v>
       </c>
       <c r="AD5" t="n">
-        <v>1874870.702426765</v>
+        <v>1966281.379127767</v>
       </c>
       <c r="AE5" t="n">
-        <v>2565280.808518067</v>
+        <v>2690352.929134817</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.305656504078033e-06</v>
+        <v>2.246357478441315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.90833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2320454.00854733</v>
+        <v>2433589.42151224</v>
       </c>
     </row>
     <row r="6">
@@ -9840,28 +9840,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1739.811979434614</v>
+        <v>1821.047039154151</v>
       </c>
       <c r="AB6" t="n">
-        <v>2380.487505349869</v>
+        <v>2491.63689789604</v>
       </c>
       <c r="AC6" t="n">
-        <v>2153.297118874475</v>
+        <v>2253.83856939519</v>
       </c>
       <c r="AD6" t="n">
-        <v>1739811.979434614</v>
+        <v>1821047.039154151</v>
       </c>
       <c r="AE6" t="n">
-        <v>2380487.505349869</v>
+        <v>2491636.89789604</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.357553732819737e-06</v>
+        <v>2.335645685201811e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.30138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2153297.118874475</v>
+        <v>2253838.569395191</v>
       </c>
     </row>
     <row r="7">
@@ -9946,28 +9946,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1641.643945549457</v>
+        <v>1722.964256615015</v>
       </c>
       <c r="AB7" t="n">
-        <v>2246.1696705202</v>
+        <v>2357.43570771902</v>
       </c>
       <c r="AC7" t="n">
-        <v>2031.798389684684</v>
+        <v>2132.445352456112</v>
       </c>
       <c r="AD7" t="n">
-        <v>1641643.945549457</v>
+        <v>1722964.256615015</v>
       </c>
       <c r="AE7" t="n">
-        <v>2246169.6705202</v>
+        <v>2357435.70771902</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.389559516539405e-06</v>
+        <v>2.390711034616066e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.94861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2031798.389684684</v>
+        <v>2132445.352456112</v>
       </c>
     </row>
     <row r="8">
@@ -10052,28 +10052,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1565.115082061177</v>
+        <v>1646.435393126734</v>
       </c>
       <c r="AB8" t="n">
-        <v>2141.45950328036</v>
+        <v>2252.725540479179</v>
       </c>
       <c r="AC8" t="n">
-        <v>1937.081613844571</v>
+        <v>2037.728576615999</v>
       </c>
       <c r="AD8" t="n">
-        <v>1565115.082061177</v>
+        <v>1646435.393126734</v>
       </c>
       <c r="AE8" t="n">
-        <v>2141459.503280359</v>
+        <v>2252725.540479179</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.415283791304745e-06</v>
+        <v>2.434969165920981e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.67638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1937081.613844571</v>
+        <v>2037728.576615999</v>
       </c>
     </row>
     <row r="9">
@@ -10158,28 +10158,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1496.906410790668</v>
+        <v>1568.05110487476</v>
       </c>
       <c r="AB9" t="n">
-        <v>2048.133390093848</v>
+        <v>2145.476699222088</v>
       </c>
       <c r="AC9" t="n">
-        <v>1852.662413916557</v>
+        <v>1940.715414243791</v>
       </c>
       <c r="AD9" t="n">
-        <v>1496906.410790668</v>
+        <v>1568051.10487476</v>
       </c>
       <c r="AE9" t="n">
-        <v>2048133.390093848</v>
+        <v>2145476.699222088</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.43667083369686e-06</v>
+        <v>2.471765170436114e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.45833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1852662.413916557</v>
+        <v>1940715.414243791</v>
       </c>
     </row>
     <row r="10">
@@ -10264,28 +10264,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1450.062633198667</v>
+        <v>1521.20732728276</v>
       </c>
       <c r="AB10" t="n">
-        <v>1984.039666990858</v>
+        <v>2081.3829761191</v>
       </c>
       <c r="AC10" t="n">
-        <v>1794.685705790412</v>
+        <v>1882.738706117646</v>
       </c>
       <c r="AD10" t="n">
-        <v>1450062.633198667</v>
+        <v>1521207.32728276</v>
       </c>
       <c r="AE10" t="n">
-        <v>1984039.666990859</v>
+        <v>2081382.976119099</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.446541776339374e-06</v>
+        <v>2.48874794175079e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.35972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1794685.705790412</v>
+        <v>1882738.706117646</v>
       </c>
     </row>
     <row r="11">
@@ -10370,28 +10370,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1409.914683648781</v>
+        <v>1481.059377732873</v>
       </c>
       <c r="AB11" t="n">
-        <v>1929.107471214175</v>
+        <v>2026.450780342416</v>
       </c>
       <c r="AC11" t="n">
-        <v>1744.996161680834</v>
+        <v>1833.049162008068</v>
       </c>
       <c r="AD11" t="n">
-        <v>1409914.683648781</v>
+        <v>1481059.377732873</v>
       </c>
       <c r="AE11" t="n">
-        <v>1929107.471214175</v>
+        <v>2026450.780342416</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.457459637140943e-06</v>
+        <v>2.50753191608369e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.25138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1744996.161680834</v>
+        <v>1833049.162008068</v>
       </c>
     </row>
     <row r="12">
@@ -10476,28 +10476,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1410.248893106879</v>
+        <v>1481.393587190971</v>
       </c>
       <c r="AB12" t="n">
-        <v>1929.564751339026</v>
+        <v>2026.908060467267</v>
       </c>
       <c r="AC12" t="n">
-        <v>1745.409799632366</v>
+        <v>1833.4627999596</v>
       </c>
       <c r="AD12" t="n">
-        <v>1410248.893106879</v>
+        <v>1481393.587190971</v>
       </c>
       <c r="AE12" t="n">
-        <v>1929564.751339026</v>
+        <v>2026908.060467267</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.458506555299997e-06</v>
+        <v>2.509333119101913e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.24305555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1745409.799632366</v>
+        <v>1833462.7999596</v>
       </c>
     </row>
   </sheetData>
@@ -10773,28 +10773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1038.489593700094</v>
+        <v>1115.961532191814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1420.907277027888</v>
+        <v>1526.907801092968</v>
       </c>
       <c r="AC2" t="n">
-        <v>1285.297880764235</v>
+        <v>1381.181863585213</v>
       </c>
       <c r="AD2" t="n">
-        <v>1038489.593700094</v>
+        <v>1115961.532191814</v>
       </c>
       <c r="AE2" t="n">
-        <v>1420907.277027888</v>
+        <v>1526907.801092968</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.491495056782265e-06</v>
+        <v>2.989941042235318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.66805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1285297.880764235</v>
+        <v>1381181.863585213</v>
       </c>
     </row>
     <row r="3">
@@ -10879,28 +10879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>918.3310223525389</v>
+        <v>987.2708262159091</v>
       </c>
       <c r="AB3" t="n">
-        <v>1256.501018688123</v>
+        <v>1350.82749974348</v>
       </c>
       <c r="AC3" t="n">
-        <v>1136.582324974783</v>
+        <v>1221.906419066265</v>
       </c>
       <c r="AD3" t="n">
-        <v>918331.0223525389</v>
+        <v>987270.8262159091</v>
       </c>
       <c r="AE3" t="n">
-        <v>1256501.018688123</v>
+        <v>1350827.49974348</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.577766581727549e-06</v>
+        <v>3.162886149922516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.75694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1136582.324974783</v>
+        <v>1221906.419066265</v>
       </c>
     </row>
   </sheetData>
@@ -11176,28 +11176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4049.492930784</v>
+        <v>4176.992952114074</v>
       </c>
       <c r="AB2" t="n">
-        <v>5540.694878918536</v>
+        <v>5715.146033006308</v>
       </c>
       <c r="AC2" t="n">
-        <v>5011.898736088447</v>
+        <v>5169.700516873807</v>
       </c>
       <c r="AD2" t="n">
-        <v>4049492.930784</v>
+        <v>4176992.952114074</v>
       </c>
       <c r="AE2" t="n">
-        <v>5540694.878918536</v>
+        <v>5715146.033006309</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.228510991115336e-07</v>
+        <v>1.457330440040757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.24722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>5011898.736088446</v>
+        <v>5169700.516873807</v>
       </c>
     </row>
     <row r="3">
@@ -11282,28 +11282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2047.33190356761</v>
+        <v>2145.303739301616</v>
       </c>
       <c r="AB3" t="n">
-        <v>2801.249832370189</v>
+        <v>2935.299220233802</v>
       </c>
       <c r="AC3" t="n">
-        <v>2533.90247994761</v>
+        <v>2655.158382373017</v>
       </c>
       <c r="AD3" t="n">
-        <v>2047331.90356761</v>
+        <v>2145303.739301616</v>
       </c>
       <c r="AE3" t="n">
-        <v>2801249.832370189</v>
+        <v>2935299.220233802</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.210020267060838e-06</v>
+        <v>2.143035805819571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.84722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2533902.47994761</v>
+        <v>2655158.382373017</v>
       </c>
     </row>
     <row r="4">
@@ -11388,28 +11388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1685.63525118909</v>
+        <v>1764.064013797589</v>
       </c>
       <c r="AB4" t="n">
-        <v>2306.360515655779</v>
+        <v>2413.670208689537</v>
       </c>
       <c r="AC4" t="n">
-        <v>2086.244705038905</v>
+        <v>2183.312911579621</v>
       </c>
       <c r="AD4" t="n">
-        <v>1685635.25118909</v>
+        <v>1764064.013797589</v>
       </c>
       <c r="AE4" t="n">
-        <v>2306360.515655779</v>
+        <v>2413670.208689537</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.346540158410031e-06</v>
+        <v>2.384822677768888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2086244.705038905</v>
+        <v>2183312.911579621</v>
       </c>
     </row>
     <row r="5">
@@ -11494,28 +11494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1510.236319176645</v>
+        <v>1588.579740930572</v>
       </c>
       <c r="AB5" t="n">
-        <v>2066.371958821595</v>
+        <v>2173.564884733155</v>
       </c>
       <c r="AC5" t="n">
-        <v>1869.16031924292</v>
+        <v>1966.122902751698</v>
       </c>
       <c r="AD5" t="n">
-        <v>1510236.319176645</v>
+        <v>1588579.740930572</v>
       </c>
       <c r="AE5" t="n">
-        <v>2066371.958821595</v>
+        <v>2173564.884733155</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.417443427721228e-06</v>
+        <v>2.510397636321153e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.23611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1869160.31924292</v>
+        <v>1966122.902751698</v>
       </c>
     </row>
     <row r="6">
@@ -11600,28 +11600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1389.919620804782</v>
+        <v>1468.34829390473</v>
       </c>
       <c r="AB6" t="n">
-        <v>1901.7493441111</v>
+        <v>2009.058914675309</v>
       </c>
       <c r="AC6" t="n">
-        <v>1720.249055831104</v>
+        <v>1817.317151590594</v>
       </c>
       <c r="AD6" t="n">
-        <v>1389919.620804782</v>
+        <v>1468348.29390473</v>
       </c>
       <c r="AE6" t="n">
-        <v>1901749.3441111</v>
+        <v>2009058.914675309</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.461757971040727e-06</v>
+        <v>2.588881985416318e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.77361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1720249.055831104</v>
+        <v>1817317.151590594</v>
       </c>
     </row>
     <row r="7">
@@ -11706,28 +11706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1300.021461955807</v>
+        <v>1368.63597281999</v>
       </c>
       <c r="AB7" t="n">
-        <v>1778.746717147071</v>
+        <v>1872.628117970028</v>
       </c>
       <c r="AC7" t="n">
-        <v>1608.985626949251</v>
+        <v>1693.907118641039</v>
       </c>
       <c r="AD7" t="n">
-        <v>1300021.461955807</v>
+        <v>1368635.97281999</v>
       </c>
       <c r="AE7" t="n">
-        <v>1778746.717147071</v>
+        <v>1872628.117970028</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.493166875428582e-06</v>
+        <v>2.644509488985524e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.4625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1608985.626949251</v>
+        <v>1693907.118641039</v>
       </c>
     </row>
     <row r="8">
@@ -11812,28 +11812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1259.680792396279</v>
+        <v>1328.295303260463</v>
       </c>
       <c r="AB8" t="n">
-        <v>1723.550833350991</v>
+        <v>1817.432234173948</v>
       </c>
       <c r="AC8" t="n">
-        <v>1559.057560834759</v>
+        <v>1643.979052526547</v>
       </c>
       <c r="AD8" t="n">
-        <v>1259680.792396279</v>
+        <v>1328295.303260463</v>
       </c>
       <c r="AE8" t="n">
-        <v>1723550.833350991</v>
+        <v>1817432.234173947</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.506072514360226e-06</v>
+        <v>2.667366334511484e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.33888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1559057.560834759</v>
+        <v>1643979.052526547</v>
       </c>
     </row>
     <row r="9">
@@ -11918,28 +11918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1265.220043741201</v>
+        <v>1333.834554605385</v>
       </c>
       <c r="AB9" t="n">
-        <v>1731.129881415635</v>
+        <v>1825.011282238592</v>
       </c>
       <c r="AC9" t="n">
-        <v>1565.913275189374</v>
+        <v>1650.834766881161</v>
       </c>
       <c r="AD9" t="n">
-        <v>1265220.043741201</v>
+        <v>1333834.554605385</v>
       </c>
       <c r="AE9" t="n">
-        <v>1731129.881415635</v>
+        <v>1825011.282238591</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.506072514360226e-06</v>
+        <v>2.667366334511484e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1565913.275189374</v>
+        <v>1650834.766881161</v>
       </c>
     </row>
   </sheetData>
@@ -12215,28 +12215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5143.308989397059</v>
+        <v>5293.17127260385</v>
       </c>
       <c r="AB2" t="n">
-        <v>7037.302266071794</v>
+        <v>7242.350453412661</v>
       </c>
       <c r="AC2" t="n">
-        <v>6365.6720147134</v>
+        <v>6551.150690841386</v>
       </c>
       <c r="AD2" t="n">
-        <v>5143308.989397059</v>
+        <v>5293171.272603851</v>
       </c>
       <c r="AE2" t="n">
-        <v>7037302.266071795</v>
+        <v>7242350.453412661</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.263993410363362e-07</v>
+        <v>1.266777022154865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.12777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>6365672.0147134</v>
+        <v>6551150.690841386</v>
       </c>
     </row>
     <row r="3">
@@ -12321,28 +12321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2354.469142899959</v>
+        <v>2454.405718983643</v>
       </c>
       <c r="AB3" t="n">
-        <v>3221.488553163585</v>
+        <v>3358.226185451863</v>
       </c>
       <c r="AC3" t="n">
-        <v>2914.034207037112</v>
+        <v>3037.721791612264</v>
       </c>
       <c r="AD3" t="n">
-        <v>2354469.142899958</v>
+        <v>2454405.718983643</v>
       </c>
       <c r="AE3" t="n">
-        <v>3221488.553163585</v>
+        <v>3358226.185451863</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135608365789608e-06</v>
+        <v>1.980401829518113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.63194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2914034.207037112</v>
+        <v>3037721.791612264</v>
       </c>
     </row>
     <row r="4">
@@ -12427,28 +12427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1895.981786041382</v>
+        <v>1975.914068245967</v>
       </c>
       <c r="AB4" t="n">
-        <v>2594.165924474865</v>
+        <v>2703.53279935059</v>
       </c>
       <c r="AC4" t="n">
-        <v>2346.582369577725</v>
+        <v>2445.511423412685</v>
       </c>
       <c r="AD4" t="n">
-        <v>1895981.786041382</v>
+        <v>1975914.068245967</v>
       </c>
       <c r="AE4" t="n">
-        <v>2594165.924474865</v>
+        <v>2703532.79935059</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.282777359799906e-06</v>
+        <v>2.237051704392609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.49444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>2346582.369577725</v>
+        <v>2445511.423412684</v>
       </c>
     </row>
     <row r="5">
@@ -12533,28 +12533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1693.474966935111</v>
+        <v>1773.492500485715</v>
       </c>
       <c r="AB5" t="n">
-        <v>2317.087160603332</v>
+        <v>2426.570680131706</v>
       </c>
       <c r="AC5" t="n">
-        <v>2095.947614047604</v>
+        <v>2194.982180133276</v>
       </c>
       <c r="AD5" t="n">
-        <v>1693474.966935111</v>
+        <v>1773492.500485715</v>
       </c>
       <c r="AE5" t="n">
-        <v>2317087.160603332</v>
+        <v>2426570.680131706</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.359408833906717e-06</v>
+        <v>2.370690303835541e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.56527777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>2095947.614047604</v>
+        <v>2194982.180133276</v>
       </c>
     </row>
     <row r="6">
@@ -12639,28 +12639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1573.604231423062</v>
+        <v>1643.619662788393</v>
       </c>
       <c r="AB6" t="n">
-        <v>2153.074731952129</v>
+        <v>2248.872934009005</v>
       </c>
       <c r="AC6" t="n">
-        <v>1947.588301393982</v>
+        <v>2034.243657500171</v>
       </c>
       <c r="AD6" t="n">
-        <v>1573604.231423063</v>
+        <v>1643619.662788393</v>
       </c>
       <c r="AE6" t="n">
-        <v>2153074.731952129</v>
+        <v>2248872.934009005</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.406636978982486e-06</v>
+        <v>2.45305206492363e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.04305555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>1947588.301393982</v>
+        <v>2034243.657500171</v>
       </c>
     </row>
     <row r="7">
@@ -12745,28 +12745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1476.944126532627</v>
+        <v>1556.876319228661</v>
       </c>
       <c r="AB7" t="n">
-        <v>2020.82011209817</v>
+        <v>2130.186864504346</v>
       </c>
       <c r="AC7" t="n">
-        <v>1827.95587683836</v>
+        <v>1926.884819892093</v>
       </c>
       <c r="AD7" t="n">
-        <v>1476944.126532627</v>
+        <v>1556876.319228661</v>
       </c>
       <c r="AE7" t="n">
-        <v>2020820.11209817</v>
+        <v>2130186.864504347</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.438325540839776e-06</v>
+        <v>2.508314149782735e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.71111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1827955.87683836</v>
+        <v>1926884.819892093</v>
       </c>
     </row>
     <row r="8">
@@ -12851,28 +12851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1398.355245386945</v>
+        <v>1468.285335897704</v>
       </c>
       <c r="AB8" t="n">
-        <v>1913.291337817907</v>
+        <v>2008.972772752586</v>
       </c>
       <c r="AC8" t="n">
-        <v>1730.689497857823</v>
+        <v>1817.239230932074</v>
       </c>
       <c r="AD8" t="n">
-        <v>1398355.245386945</v>
+        <v>1468285.335897704</v>
       </c>
       <c r="AE8" t="n">
-        <v>1913291.337817907</v>
+        <v>2008972.772752586</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.464224846203907e-06</v>
+        <v>2.553480276831042e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.45</v>
       </c>
       <c r="AH8" t="n">
-        <v>1730689.497857824</v>
+        <v>1817239.230932074</v>
       </c>
     </row>
     <row r="9">
@@ -12957,28 +12957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1353.068884578092</v>
+        <v>1422.998975088851</v>
       </c>
       <c r="AB9" t="n">
-        <v>1851.328541065999</v>
+        <v>1947.009976000678</v>
       </c>
       <c r="AC9" t="n">
-        <v>1674.640343462586</v>
+        <v>1761.190076536836</v>
       </c>
       <c r="AD9" t="n">
-        <v>1353068.884578092</v>
+        <v>1422998.975088851</v>
       </c>
       <c r="AE9" t="n">
-        <v>1851328.541065999</v>
+        <v>1947009.976000678</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.473518126363977e-06</v>
+        <v>2.569686945948375e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.35972222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1674640.343462586</v>
+        <v>1761190.076536836</v>
       </c>
     </row>
     <row r="10">
@@ -13063,28 +13063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1337.786870095493</v>
+        <v>1407.716960606252</v>
       </c>
       <c r="AB10" t="n">
-        <v>1830.419014656011</v>
+        <v>1926.100449590689</v>
       </c>
       <c r="AC10" t="n">
-        <v>1655.726392906462</v>
+        <v>1742.276125980713</v>
       </c>
       <c r="AD10" t="n">
-        <v>1337786.870095493</v>
+        <v>1407716.960606252</v>
       </c>
       <c r="AE10" t="n">
-        <v>1830419.014656011</v>
+        <v>1926100.449590689</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.480373824842718e-06</v>
+        <v>2.581642685461162e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.29305555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>1655726.392906462</v>
+        <v>1742276.125980712</v>
       </c>
     </row>
     <row r="11">
@@ -13169,28 +13169,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1344.344931232832</v>
+        <v>1414.275021743591</v>
       </c>
       <c r="AB11" t="n">
-        <v>1839.392043225356</v>
+        <v>1935.073478160035</v>
       </c>
       <c r="AC11" t="n">
-        <v>1663.843048222874</v>
+        <v>1750.392781297125</v>
       </c>
       <c r="AD11" t="n">
-        <v>1344344.931232832</v>
+        <v>1414275.021743591</v>
       </c>
       <c r="AE11" t="n">
-        <v>1839392.043225356</v>
+        <v>1935073.478160035</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.480526173697801e-06</v>
+        <v>2.581908368561447e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.29166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1663843.048222874</v>
+        <v>1750392.781297125</v>
       </c>
     </row>
   </sheetData>
@@ -13466,28 +13466,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8447.915885535613</v>
+        <v>8644.24162583418</v>
       </c>
       <c r="AB2" t="n">
-        <v>11558.81121033581</v>
+        <v>11827.43274949271</v>
       </c>
       <c r="AC2" t="n">
-        <v>10455.65449131435</v>
+        <v>10698.63916778679</v>
       </c>
       <c r="AD2" t="n">
-        <v>8447915.885535613</v>
+        <v>8644241.62583418</v>
       </c>
       <c r="AE2" t="n">
-        <v>11558811.21033581</v>
+        <v>11827432.7494927</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.565866453443024e-07</v>
+        <v>9.461604085379922e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.69027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>10455654.49131435</v>
+        <v>10698639.16778679</v>
       </c>
     </row>
     <row r="3">
@@ -13572,28 +13572,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3030.657088326862</v>
+        <v>3133.946090219335</v>
       </c>
       <c r="AB3" t="n">
-        <v>4146.678731403492</v>
+        <v>4288.003300581944</v>
       </c>
       <c r="AC3" t="n">
-        <v>3750.925533178338</v>
+        <v>3878.762283824671</v>
       </c>
       <c r="AD3" t="n">
-        <v>3030657.088326862</v>
+        <v>3133946.090219336</v>
       </c>
       <c r="AE3" t="n">
-        <v>4146678.731403492</v>
+        <v>4288003.300581944</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.005091075542485e-06</v>
+        <v>1.70858821462541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.32083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3750925.533178338</v>
+        <v>3878762.283824671</v>
       </c>
     </row>
     <row r="4">
@@ -13678,28 +13678,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2347.434778113016</v>
+        <v>2440.301013827068</v>
       </c>
       <c r="AB4" t="n">
-        <v>3211.863824927818</v>
+        <v>3338.927505600961</v>
       </c>
       <c r="AC4" t="n">
-        <v>2905.328049355776</v>
+        <v>3020.264950680466</v>
       </c>
       <c r="AD4" t="n">
-        <v>2347434.778113016</v>
+        <v>2440301.013827068</v>
       </c>
       <c r="AE4" t="n">
-        <v>3211863.824927818</v>
+        <v>3338927.505600961</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.168464328640905e-06</v>
+        <v>1.986311917105122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2905328.049355776</v>
+        <v>3020264.950680466</v>
       </c>
     </row>
     <row r="5">
@@ -13784,28 +13784,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2071.614999121277</v>
+        <v>2154.229150366052</v>
       </c>
       <c r="AB5" t="n">
-        <v>2834.475035001283</v>
+        <v>2947.511361413508</v>
       </c>
       <c r="AC5" t="n">
-        <v>2563.956715871458</v>
+        <v>2666.20501393838</v>
       </c>
       <c r="AD5" t="n">
-        <v>2071614.999121277</v>
+        <v>2154229.150366052</v>
       </c>
       <c r="AE5" t="n">
-        <v>2834475.035001283</v>
+        <v>2947511.361413508</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.255518303289208e-06</v>
+        <v>2.13429790438504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.26666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2563956.715871457</v>
+        <v>2666205.01393838</v>
       </c>
     </row>
     <row r="6">
@@ -13890,28 +13890,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1912.285363363943</v>
+        <v>1994.984765954738</v>
       </c>
       <c r="AB6" t="n">
-        <v>2616.473198230661</v>
+        <v>2729.626169295535</v>
       </c>
       <c r="AC6" t="n">
-        <v>2366.760668434723</v>
+        <v>2469.114478752358</v>
       </c>
       <c r="AD6" t="n">
-        <v>1912285.363363943</v>
+        <v>1994984.765954738</v>
       </c>
       <c r="AE6" t="n">
-        <v>2616473.198230661</v>
+        <v>2729626.169295534</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.308750632381583e-06</v>
+        <v>2.224789335796071e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.60555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>2366760.668434723</v>
+        <v>2469114.478752358</v>
       </c>
     </row>
     <row r="7">
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1808.463925208387</v>
+        <v>1880.825991983883</v>
       </c>
       <c r="AB7" t="n">
-        <v>2474.420126267637</v>
+        <v>2573.42909841895</v>
       </c>
       <c r="AC7" t="n">
-        <v>2238.264942287112</v>
+        <v>2327.824637096269</v>
       </c>
       <c r="AD7" t="n">
-        <v>1808463.925208387</v>
+        <v>1880825.991983883</v>
       </c>
       <c r="AE7" t="n">
-        <v>2474420.126267637</v>
+        <v>2573429.09841895</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.346101493125956e-06</v>
+        <v>2.288283323581712e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.17222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>2238264.942287112</v>
+        <v>2327824.637096269</v>
       </c>
     </row>
     <row r="8">
@@ -14102,28 +14102,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1721.151549500382</v>
+        <v>1803.765611236605</v>
       </c>
       <c r="AB8" t="n">
-        <v>2354.955481873786</v>
+        <v>2467.991685816462</v>
       </c>
       <c r="AC8" t="n">
-        <v>2130.201835884529</v>
+        <v>2232.450023170225</v>
       </c>
       <c r="AD8" t="n">
-        <v>1721151.549500382</v>
+        <v>1803765.611236605</v>
       </c>
       <c r="AE8" t="n">
-        <v>2354955.481873786</v>
+        <v>2467991.685816462</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.372276505773588e-06</v>
+        <v>2.332779110297634e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.88333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2130201.835884529</v>
+        <v>2232450.023170224</v>
       </c>
     </row>
     <row r="9">
@@ -14208,28 +14208,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1657.707814044028</v>
+        <v>1740.321875780251</v>
       </c>
       <c r="AB9" t="n">
-        <v>2268.148964082333</v>
+        <v>2381.185168025009</v>
       </c>
       <c r="AC9" t="n">
-        <v>2051.68001031738</v>
+        <v>2153.928197603075</v>
       </c>
       <c r="AD9" t="n">
-        <v>1657707.814044028</v>
+        <v>1740321.875780251</v>
       </c>
       <c r="AE9" t="n">
-        <v>2268148.964082333</v>
+        <v>2381185.168025009</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.393451796904256e-06</v>
+        <v>2.368775701798154e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.65694444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>2051680.010317379</v>
+        <v>2153928.197603075</v>
       </c>
     </row>
     <row r="10">
@@ -14314,28 +14314,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1590.522155714211</v>
+        <v>1662.798881635136</v>
       </c>
       <c r="AB10" t="n">
-        <v>2176.222582333422</v>
+        <v>2275.114787362538</v>
       </c>
       <c r="AC10" t="n">
-        <v>1968.526953423097</v>
+        <v>2057.981025200315</v>
       </c>
       <c r="AD10" t="n">
-        <v>1590522.155714211</v>
+        <v>1662798.881635136</v>
       </c>
       <c r="AE10" t="n">
-        <v>2176222.582333422</v>
+        <v>2275114.787362538</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.414774138667776e-06</v>
+        <v>2.40502226962854e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.43611111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1968526.953423097</v>
+        <v>2057981.025200315</v>
       </c>
     </row>
     <row r="11">
@@ -14420,28 +14420,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1558.228786235524</v>
+        <v>1630.50551215645</v>
       </c>
       <c r="AB11" t="n">
-        <v>2132.037369529771</v>
+        <v>2230.929574558887</v>
       </c>
       <c r="AC11" t="n">
-        <v>1928.558715315091</v>
+        <v>2018.012787092309</v>
       </c>
       <c r="AD11" t="n">
-        <v>1558228.786235525</v>
+        <v>1630505.51215645</v>
       </c>
       <c r="AE11" t="n">
-        <v>2132037.369529771</v>
+        <v>2230929.574558887</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.41977386018474e-06</v>
+        <v>2.413521464843941e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.38472222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1928558.715315091</v>
+        <v>2018012.787092309</v>
       </c>
     </row>
     <row r="12">
@@ -14526,28 +14526,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1505.639653702117</v>
+        <v>1577.916379623041</v>
       </c>
       <c r="AB12" t="n">
-        <v>2060.082598328777</v>
+        <v>2158.974803357892</v>
       </c>
       <c r="AC12" t="n">
-        <v>1863.471206488364</v>
+        <v>1952.925278265582</v>
       </c>
       <c r="AD12" t="n">
-        <v>1505639.653702117</v>
+        <v>1577916.379623041</v>
       </c>
       <c r="AE12" t="n">
-        <v>2060082.598328777</v>
+        <v>2158974.803357892</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.430949708281481e-06</v>
+        <v>2.43251966591366e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.27222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1863471.206488364</v>
+        <v>1952925.278265582</v>
       </c>
     </row>
     <row r="13">
@@ -14632,28 +14632,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1478.188261122855</v>
+        <v>1550.46498704378</v>
       </c>
       <c r="AB13" t="n">
-        <v>2022.522391931864</v>
+        <v>2121.41459696098</v>
       </c>
       <c r="AC13" t="n">
-        <v>1829.495693473892</v>
+        <v>1918.94976525111</v>
       </c>
       <c r="AD13" t="n">
-        <v>1478188.261122855</v>
+        <v>1550464.987043781</v>
       </c>
       <c r="AE13" t="n">
-        <v>2022522.391931864</v>
+        <v>2121414.59696098</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.438155189291223e-06</v>
+        <v>2.444768506077031e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1829495.693473892</v>
+        <v>1918949.76525111</v>
       </c>
     </row>
     <row r="14">
@@ -14738,28 +14738,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1481.718276182971</v>
+        <v>1553.995002103896</v>
       </c>
       <c r="AB14" t="n">
-        <v>2027.352314270389</v>
+        <v>2126.244519299504</v>
       </c>
       <c r="AC14" t="n">
-        <v>1833.864654803266</v>
+        <v>1923.318726580484</v>
       </c>
       <c r="AD14" t="n">
-        <v>1481718.276182971</v>
+        <v>1553995.002103896</v>
       </c>
       <c r="AE14" t="n">
-        <v>2027352.314270389</v>
+        <v>2126244.519299504</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.437566986759815e-06</v>
+        <v>2.443768600757573e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.20694444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>1833864.654803266</v>
+        <v>1923318.726580484</v>
       </c>
     </row>
     <row r="15">
@@ -14844,28 +14844,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1488.095994569176</v>
+        <v>1560.372720490101</v>
       </c>
       <c r="AB15" t="n">
-        <v>2036.078589931471</v>
+        <v>2134.970794960586</v>
       </c>
       <c r="AC15" t="n">
-        <v>1841.75810696266</v>
+        <v>1931.212178739878</v>
       </c>
       <c r="AD15" t="n">
-        <v>1488095.994569176</v>
+        <v>1560372.720490101</v>
       </c>
       <c r="AE15" t="n">
-        <v>2036078.589931472</v>
+        <v>2134970.794960586</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.437419936126963e-06</v>
+        <v>2.443518624427708e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.20833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1841758.10696266</v>
+        <v>1931212.178739878</v>
       </c>
     </row>
   </sheetData>
@@ -15141,28 +15141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3173.445758693063</v>
+        <v>3288.743515026912</v>
       </c>
       <c r="AB2" t="n">
-        <v>4342.048489590088</v>
+        <v>4499.803966384084</v>
       </c>
       <c r="AC2" t="n">
-        <v>3927.649475846775</v>
+        <v>4070.34899134675</v>
       </c>
       <c r="AD2" t="n">
-        <v>3173445.758693063</v>
+        <v>3288743.515026912</v>
       </c>
       <c r="AE2" t="n">
-        <v>4342048.489590088</v>
+        <v>4499803.966384084</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.30018456236536e-07</v>
+        <v>1.677043356108452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.75694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3927649.475846775</v>
+        <v>4070348.991346749</v>
       </c>
     </row>
     <row r="3">
@@ -15247,28 +15247,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1768.577522254166</v>
+        <v>1845.442782651949</v>
       </c>
       <c r="AB3" t="n">
-        <v>2419.845790081765</v>
+        <v>2525.01623041397</v>
       </c>
       <c r="AC3" t="n">
-        <v>2188.899104151257</v>
+        <v>2284.032225265798</v>
       </c>
       <c r="AD3" t="n">
-        <v>1768577.522254166</v>
+        <v>1845442.782651949</v>
       </c>
       <c r="AE3" t="n">
-        <v>2419845.790081765</v>
+        <v>2525016.230413971</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.290667077565347e-06</v>
+        <v>2.3273781642333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.11944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>2188899.104151257</v>
+        <v>2284032.225265798</v>
       </c>
     </row>
     <row r="4">
@@ -15353,28 +15353,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1463.335947561968</v>
+        <v>1540.2011184512</v>
       </c>
       <c r="AB4" t="n">
-        <v>2002.200801280029</v>
+        <v>2107.371119142686</v>
       </c>
       <c r="AC4" t="n">
-        <v>1811.113566912335</v>
+        <v>1906.24657724565</v>
       </c>
       <c r="AD4" t="n">
-        <v>1463335.947561968</v>
+        <v>1540201.1184512</v>
       </c>
       <c r="AE4" t="n">
-        <v>2002200.801280029</v>
+        <v>2107371.119142686</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.417936110235417e-06</v>
+        <v>2.556874347074005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1811113.566912335</v>
+        <v>1906246.57724565</v>
       </c>
     </row>
     <row r="5">
@@ -15459,28 +15459,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1306.893366544688</v>
+        <v>1383.673196579348</v>
       </c>
       <c r="AB5" t="n">
-        <v>1788.149160172613</v>
+        <v>1893.202710913074</v>
       </c>
       <c r="AC5" t="n">
-        <v>1617.490714008846</v>
+        <v>1712.518101310222</v>
       </c>
       <c r="AD5" t="n">
-        <v>1306893.366544688</v>
+        <v>1383673.196579348</v>
       </c>
       <c r="AE5" t="n">
-        <v>1788149.160172613</v>
+        <v>1893202.710913074</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.483320575769665e-06</v>
+        <v>2.674778011008417e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1617490.714008847</v>
+        <v>1712518.101310222</v>
       </c>
     </row>
     <row r="6">
@@ -15565,28 +15565,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1204.598925855279</v>
+        <v>1271.941291237928</v>
       </c>
       <c r="AB6" t="n">
-        <v>1648.185393509146</v>
+        <v>1740.32618876117</v>
       </c>
       <c r="AC6" t="n">
-        <v>1490.884892795361</v>
+        <v>1574.23189986895</v>
       </c>
       <c r="AD6" t="n">
-        <v>1204598.925855279</v>
+        <v>1271941.291237928</v>
       </c>
       <c r="AE6" t="n">
-        <v>1648185.393509146</v>
+        <v>1740326.18876117</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.523410321060737e-06</v>
+        <v>2.747069308603239e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.50416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1490884.892795361</v>
+        <v>1574231.89986895</v>
       </c>
     </row>
     <row r="7">
@@ -15671,28 +15671,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1196.356979186108</v>
+        <v>1263.528752368165</v>
       </c>
       <c r="AB7" t="n">
-        <v>1636.908398467362</v>
+        <v>1728.815781944538</v>
       </c>
       <c r="AC7" t="n">
-        <v>1480.684158333003</v>
+        <v>1563.82003012394</v>
       </c>
       <c r="AD7" t="n">
-        <v>1196356.979186108</v>
+        <v>1263528.752368165</v>
       </c>
       <c r="AE7" t="n">
-        <v>1636908.398467362</v>
+        <v>1728815.781944538</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526751133168326e-06</v>
+        <v>2.753093583402808e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.47083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1480684.158333003</v>
+        <v>1563820.03012394</v>
       </c>
     </row>
     <row r="8">
@@ -15777,28 +15777,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1203.532852174032</v>
+        <v>1270.70462535609</v>
       </c>
       <c r="AB8" t="n">
-        <v>1646.726744466613</v>
+        <v>1738.634127943789</v>
       </c>
       <c r="AC8" t="n">
-        <v>1489.56545517022</v>
+        <v>1572.701326961158</v>
       </c>
       <c r="AD8" t="n">
-        <v>1203532.852174032</v>
+        <v>1270704.62535609</v>
       </c>
       <c r="AE8" t="n">
-        <v>1646726.744466613</v>
+        <v>1738634.127943789</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.526751133168326e-06</v>
+        <v>2.753093583402808e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.47222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1489565.45517022</v>
+        <v>1572701.326961158</v>
       </c>
     </row>
   </sheetData>
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2147.864979349137</v>
+        <v>2249.548563988807</v>
       </c>
       <c r="AB2" t="n">
-        <v>2938.803621860757</v>
+        <v>3077.93158832808</v>
       </c>
       <c r="AC2" t="n">
-        <v>2658.328328827154</v>
+        <v>2784.178117442048</v>
       </c>
       <c r="AD2" t="n">
-        <v>2147864.979349137</v>
+        <v>2249548.563988807</v>
       </c>
       <c r="AE2" t="n">
-        <v>2938803.621860757</v>
+        <v>3077931.58832808</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.119903186218623e-06</v>
+        <v>2.089381376563336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.55277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2658328.328827154</v>
+        <v>2784178.117442048</v>
       </c>
     </row>
     <row r="3">
@@ -16180,28 +16180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1346.82097625711</v>
+        <v>1420.749488906899</v>
       </c>
       <c r="AB3" t="n">
-        <v>1842.77987726297</v>
+        <v>1943.932129766205</v>
       </c>
       <c r="AC3" t="n">
-        <v>1666.907552134793</v>
+        <v>1758.405975627197</v>
       </c>
       <c r="AD3" t="n">
-        <v>1346820.97625711</v>
+        <v>1420749.488906899</v>
       </c>
       <c r="AE3" t="n">
-        <v>1842779.87726297</v>
+        <v>1943932.129766205</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.434596312976416e-06</v>
+        <v>2.676498161720746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1666907.552134793</v>
+        <v>1758405.975627197</v>
       </c>
     </row>
     <row r="4">
@@ -16286,28 +16286,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1115.171003207456</v>
+        <v>1189.099426348694</v>
       </c>
       <c r="AB4" t="n">
-        <v>1525.826164460891</v>
+        <v>1626.978294494578</v>
       </c>
       <c r="AC4" t="n">
-        <v>1380.203456835215</v>
+        <v>1471.701769546393</v>
       </c>
       <c r="AD4" t="n">
-        <v>1115171.003207456</v>
+        <v>1189099.426348694</v>
       </c>
       <c r="AE4" t="n">
-        <v>1525826.164460891</v>
+        <v>1626978.294494578</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.545294053194534e-06</v>
+        <v>2.883024761238992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.89444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1380203.456835215</v>
+        <v>1471701.769546393</v>
       </c>
     </row>
     <row r="5">
@@ -16392,28 +16392,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1082.016678369456</v>
+        <v>1155.945101510694</v>
       </c>
       <c r="AB5" t="n">
-        <v>1480.462954551958</v>
+        <v>1581.615084585645</v>
       </c>
       <c r="AC5" t="n">
-        <v>1339.169648012326</v>
+        <v>1430.667960723503</v>
       </c>
       <c r="AD5" t="n">
-        <v>1082016.678369456</v>
+        <v>1155945.101510694</v>
       </c>
       <c r="AE5" t="n">
-        <v>1480462.954551958</v>
+        <v>1581615.084585645</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.561368425651356e-06</v>
+        <v>2.913014402187001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.74027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1339169.648012326</v>
+        <v>1430667.960723503</v>
       </c>
     </row>
     <row r="6">
@@ -16498,28 +16498,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1087.672729477979</v>
+        <v>1161.601152619218</v>
       </c>
       <c r="AB6" t="n">
-        <v>1488.201813206003</v>
+        <v>1589.35394323969</v>
       </c>
       <c r="AC6" t="n">
-        <v>1346.169920857985</v>
+        <v>1437.668233569163</v>
       </c>
       <c r="AD6" t="n">
-        <v>1087672.729477979</v>
+        <v>1161601.152619218</v>
       </c>
       <c r="AE6" t="n">
-        <v>1488201.813206004</v>
+        <v>1589353.94323969</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.562859862271061e-06</v>
+        <v>2.915796946192486e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.72777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1346169.920857985</v>
+        <v>1437668.233569163</v>
       </c>
     </row>
   </sheetData>
@@ -30272,28 +30272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1577.045081343941</v>
+        <v>1666.627966954296</v>
       </c>
       <c r="AB2" t="n">
-        <v>2157.78265461346</v>
+        <v>2280.353910823535</v>
       </c>
       <c r="AC2" t="n">
-        <v>1951.846906524127</v>
+        <v>2062.720134071351</v>
       </c>
       <c r="AD2" t="n">
-        <v>1577045.081343941</v>
+        <v>1666627.966954296</v>
       </c>
       <c r="AE2" t="n">
-        <v>2157782.65461346</v>
+        <v>2280353.910823535</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.278657016274342e-06</v>
+        <v>2.458904859510806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.62083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1951846.906524127</v>
+        <v>2062720.134071351</v>
       </c>
     </row>
     <row r="3">
@@ -30378,28 +30378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1045.23629608732</v>
+        <v>1116.80028505867</v>
       </c>
       <c r="AB3" t="n">
-        <v>1430.138412877593</v>
+        <v>1528.055419768564</v>
       </c>
       <c r="AC3" t="n">
-        <v>1293.648009964424</v>
+        <v>1382.219955145103</v>
       </c>
       <c r="AD3" t="n">
-        <v>1045236.29608732</v>
+        <v>1116800.28505867</v>
       </c>
       <c r="AE3" t="n">
-        <v>1430138.412877593</v>
+        <v>1528055.419768564</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.5561936444213e-06</v>
+        <v>2.992618087496862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>1293648.009964424</v>
+        <v>1382219.955145103</v>
       </c>
     </row>
     <row r="4">
@@ -30484,28 +30484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1011.124016533853</v>
+        <v>1073.891864567853</v>
       </c>
       <c r="AB4" t="n">
-        <v>1383.464487064979</v>
+        <v>1469.346225867118</v>
       </c>
       <c r="AC4" t="n">
-        <v>1251.428578124099</v>
+        <v>1329.113884310739</v>
       </c>
       <c r="AD4" t="n">
-        <v>1011124.016533853</v>
+        <v>1073891.864567853</v>
       </c>
       <c r="AE4" t="n">
-        <v>1383464.487064979</v>
+        <v>1469346.225867118</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.579335982160546e-06</v>
+        <v>3.037121661170807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>1251428.578124099</v>
+        <v>1329113.884310739</v>
       </c>
     </row>
   </sheetData>
@@ -30781,28 +30781,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>870.1023234879847</v>
+        <v>937.2336061427852</v>
       </c>
       <c r="AB2" t="n">
-        <v>1190.512385201611</v>
+        <v>1282.364367753079</v>
       </c>
       <c r="AC2" t="n">
-        <v>1076.891554052595</v>
+        <v>1159.977312304419</v>
       </c>
       <c r="AD2" t="n">
-        <v>870102.3234879847</v>
+        <v>937233.6061427852</v>
       </c>
       <c r="AE2" t="n">
-        <v>1190512.385201611</v>
+        <v>1282364.367753079</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.549020416322193e-06</v>
+        <v>3.195008459483189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.49722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1076891.554052596</v>
+        <v>1159977.312304419</v>
       </c>
     </row>
     <row r="3">
@@ -30887,28 +30887,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>880.6706004339428</v>
+        <v>947.8018830887434</v>
       </c>
       <c r="AB3" t="n">
-        <v>1204.972367958544</v>
+        <v>1296.824350510012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1089.97149634992</v>
+        <v>1173.057254601743</v>
       </c>
       <c r="AD3" t="n">
-        <v>880670.6004339429</v>
+        <v>947801.8830887433</v>
       </c>
       <c r="AE3" t="n">
-        <v>1204972.367958544</v>
+        <v>1296824.350510012</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.549940371433443e-06</v>
+        <v>3.196905958271336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.4875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1089971.49634992</v>
+        <v>1173057.254601743</v>
       </c>
     </row>
   </sheetData>
@@ -31184,28 +31184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4559.982058807297</v>
+        <v>4698.72522238992</v>
       </c>
       <c r="AB2" t="n">
-        <v>6239.168625070914</v>
+        <v>6429.003142401056</v>
       </c>
       <c r="AC2" t="n">
-        <v>5643.711128222072</v>
+        <v>5815.428105652636</v>
       </c>
       <c r="AD2" t="n">
-        <v>4559982.058807297</v>
+        <v>4698725.222389921</v>
       </c>
       <c r="AE2" t="n">
-        <v>6239168.625070915</v>
+        <v>6429003.142401055</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.733492875081512e-07</v>
+        <v>1.358744191242569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.63333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5643711.128222072</v>
+        <v>5815428.105652636</v>
       </c>
     </row>
     <row r="3">
@@ -31290,28 +31290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2202.677693587878</v>
+        <v>2291.784475973544</v>
       </c>
       <c r="AB3" t="n">
-        <v>3013.800795648661</v>
+        <v>3135.720626422531</v>
       </c>
       <c r="AC3" t="n">
-        <v>2726.167877607823</v>
+        <v>2836.451850848187</v>
       </c>
       <c r="AD3" t="n">
-        <v>2202677.693587878</v>
+        <v>2291784.475973545</v>
       </c>
       <c r="AE3" t="n">
-        <v>3013800.795648661</v>
+        <v>3135720.626422531</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.172179640317767e-06</v>
+        <v>2.059473388158753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.23194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2726167.877607823</v>
+        <v>2836451.850848187</v>
       </c>
     </row>
     <row r="4">
@@ -31396,28 +31396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1790.515817632921</v>
+        <v>1869.7123740484</v>
       </c>
       <c r="AB4" t="n">
-        <v>2449.862733668262</v>
+        <v>2558.222956061402</v>
       </c>
       <c r="AC4" t="n">
-        <v>2216.051272770905</v>
+        <v>2314.06974762337</v>
       </c>
       <c r="AD4" t="n">
-        <v>1790515.817632922</v>
+        <v>1869712.3740484</v>
       </c>
       <c r="AE4" t="n">
-        <v>2449862.733668262</v>
+        <v>2558222.956061402</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.31420140561224e-06</v>
+        <v>2.309000027338396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.26111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2216051.272770905</v>
+        <v>2314069.74762337</v>
       </c>
     </row>
     <row r="5">
@@ -31502,28 +31502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1601.776543319881</v>
+        <v>1680.887758880787</v>
       </c>
       <c r="AB5" t="n">
-        <v>2191.621331964039</v>
+        <v>2299.86478723498</v>
       </c>
       <c r="AC5" t="n">
-        <v>1982.456068001249</v>
+        <v>2080.368919821775</v>
       </c>
       <c r="AD5" t="n">
-        <v>1601776.54331988</v>
+        <v>1680887.758880788</v>
       </c>
       <c r="AE5" t="n">
-        <v>2191621.331964039</v>
+        <v>2299864.78723498</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.387751138885001e-06</v>
+        <v>2.438224007325254e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.39861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1982456.068001249</v>
+        <v>2080368.919821775</v>
       </c>
     </row>
     <row r="6">
@@ -31608,28 +31608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1477.246908362573</v>
+        <v>1556.443375269501</v>
       </c>
       <c r="AB6" t="n">
-        <v>2021.234391555694</v>
+        <v>2129.594491479284</v>
       </c>
       <c r="AC6" t="n">
-        <v>1828.330618045903</v>
+        <v>1926.348982117142</v>
       </c>
       <c r="AD6" t="n">
-        <v>1477246.908362573</v>
+        <v>1556443.375269501</v>
       </c>
       <c r="AE6" t="n">
-        <v>2021234.391555694</v>
+        <v>2129594.491479285</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.433604319879316e-06</v>
+        <v>2.518786237526266e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.90694444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1828330.618045903</v>
+        <v>1926348.982117142</v>
       </c>
     </row>
     <row r="7">
@@ -31714,28 +31714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1391.168247488204</v>
+        <v>1470.364714395132</v>
       </c>
       <c r="AB7" t="n">
-        <v>1903.45777022488</v>
+        <v>2011.817870148471</v>
       </c>
       <c r="AC7" t="n">
-        <v>1721.794432154377</v>
+        <v>1819.812796225615</v>
       </c>
       <c r="AD7" t="n">
-        <v>1391168.247488204</v>
+        <v>1470364.714395132</v>
       </c>
       <c r="AE7" t="n">
-        <v>1903457.77022488</v>
+        <v>2011817.870148471</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465147615529768e-06</v>
+        <v>2.574206563671258e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.58611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1721794.432154377</v>
+        <v>1819812.796225615</v>
       </c>
     </row>
     <row r="8">
@@ -31820,28 +31820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1315.816223219182</v>
+        <v>1385.102553664474</v>
       </c>
       <c r="AB8" t="n">
-        <v>1800.35780632331</v>
+        <v>1895.158420335726</v>
       </c>
       <c r="AC8" t="n">
-        <v>1628.534184105864</v>
+        <v>1714.287160570432</v>
       </c>
       <c r="AD8" t="n">
-        <v>1315816.223219182</v>
+        <v>1385102.553664474</v>
       </c>
       <c r="AE8" t="n">
-        <v>1800357.80632331</v>
+        <v>1895158.420335726</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.489305163905968e-06</v>
+        <v>2.61665042320669e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.34861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1628534.184105864</v>
+        <v>1714287.160570432</v>
       </c>
     </row>
     <row r="9">
@@ -31926,28 +31926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1307.141025558369</v>
+        <v>1376.42735600366</v>
       </c>
       <c r="AB9" t="n">
-        <v>1788.488018161076</v>
+        <v>1883.288632173491</v>
       </c>
       <c r="AC9" t="n">
-        <v>1617.797231866481</v>
+        <v>1703.550208331049</v>
       </c>
       <c r="AD9" t="n">
-        <v>1307141.025558369</v>
+        <v>1376427.35600366</v>
       </c>
       <c r="AE9" t="n">
-        <v>1788488.018161076</v>
+        <v>1883288.632173491</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.488074206026926e-06</v>
+        <v>2.614487678771764e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.36111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1617797.231866481</v>
+        <v>1703550.208331049</v>
       </c>
     </row>
     <row r="10">
@@ -32032,28 +32032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1313.023069725571</v>
+        <v>1382.309400170863</v>
       </c>
       <c r="AB10" t="n">
-        <v>1796.536090488117</v>
+        <v>1891.336704500533</v>
       </c>
       <c r="AC10" t="n">
-        <v>1625.077207466169</v>
+        <v>1710.830183930738</v>
       </c>
       <c r="AD10" t="n">
-        <v>1313023.069725571</v>
+        <v>1382309.400170862</v>
       </c>
       <c r="AE10" t="n">
-        <v>1796536.090488117</v>
+        <v>1891336.704500532</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.488381945496686e-06</v>
+        <v>2.615028364880495e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.35833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1625077.207466169</v>
+        <v>1710830.183930738</v>
       </c>
     </row>
   </sheetData>
@@ -32329,28 +32329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7432.970033232369</v>
+        <v>7617.527014281279</v>
       </c>
       <c r="AB2" t="n">
-        <v>10170.11751896358</v>
+        <v>10422.63652251407</v>
       </c>
       <c r="AC2" t="n">
-        <v>9199.495776802898</v>
+        <v>9427.914721067171</v>
       </c>
       <c r="AD2" t="n">
-        <v>7432970.033232369</v>
+        <v>7617527.014281278</v>
       </c>
       <c r="AE2" t="n">
-        <v>10170117.51896358</v>
+        <v>10422636.52251408</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.965053884739408e-07</v>
+        <v>1.019957738301006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.52222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>9199495.776802897</v>
+        <v>9427914.721067172</v>
       </c>
     </row>
     <row r="3">
@@ -32435,28 +32435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2844.85371275959</v>
+        <v>2957.520005547019</v>
       </c>
       <c r="AB3" t="n">
-        <v>3892.454355885926</v>
+        <v>4046.609348163732</v>
       </c>
       <c r="AC3" t="n">
-        <v>3520.963975254027</v>
+        <v>3660.406631426724</v>
       </c>
       <c r="AD3" t="n">
-        <v>2844853.71275959</v>
+        <v>2957520.005547019</v>
       </c>
       <c r="AE3" t="n">
-        <v>3892454.355885926</v>
+        <v>4046609.348163732</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.036285398967033e-06</v>
+        <v>1.77193254610632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.87083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3520963.975254027</v>
+        <v>3660406.631426724</v>
       </c>
     </row>
     <row r="4">
@@ -32541,28 +32541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2232.34183847299</v>
+        <v>2324.492407224137</v>
       </c>
       <c r="AB4" t="n">
-        <v>3054.388587370182</v>
+        <v>3180.473060931682</v>
       </c>
       <c r="AC4" t="n">
-        <v>2762.882027452763</v>
+        <v>2876.933175818219</v>
       </c>
       <c r="AD4" t="n">
-        <v>2232341.83847299</v>
+        <v>2324492.407224137</v>
       </c>
       <c r="AE4" t="n">
-        <v>3054388.587370182</v>
+        <v>3180473.060931682</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.196124526179289e-06</v>
+        <v>2.045239640784044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.21666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2762882.027452763</v>
+        <v>2876933.175818219</v>
       </c>
     </row>
     <row r="5">
@@ -32647,28 +32647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1979.611912653704</v>
+        <v>2061.589915487009</v>
       </c>
       <c r="AB5" t="n">
-        <v>2708.592353206638</v>
+        <v>2820.758273297402</v>
       </c>
       <c r="AC5" t="n">
-        <v>2450.08810054984</v>
+        <v>2551.549062652998</v>
       </c>
       <c r="AD5" t="n">
-        <v>1979611.912653704</v>
+        <v>2061589.915487008</v>
       </c>
       <c r="AE5" t="n">
-        <v>2708592.353206638</v>
+        <v>2820758.273297402</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279602660335598e-06</v>
+        <v>2.187977947188088e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.09444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>2450088.100549839</v>
+        <v>2551549.062652998</v>
       </c>
     </row>
     <row r="6">
@@ -32753,28 +32753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1827.912815350408</v>
+        <v>1909.805477329141</v>
       </c>
       <c r="AB6" t="n">
-        <v>2501.030955784428</v>
+        <v>2613.080108752994</v>
       </c>
       <c r="AC6" t="n">
-        <v>2262.336071583354</v>
+        <v>2363.691410654574</v>
       </c>
       <c r="AD6" t="n">
-        <v>1827912.815350408</v>
+        <v>1909805.477329141</v>
       </c>
       <c r="AE6" t="n">
-        <v>2501030.955784428</v>
+        <v>2613080.108752994</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.33194330217783e-06</v>
+        <v>2.277474611771795e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.4625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2262336.071583354</v>
+        <v>2363691.410654574</v>
       </c>
     </row>
     <row r="7">
@@ -32859,28 +32859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1731.617728056899</v>
+        <v>1803.423164972359</v>
       </c>
       <c r="AB7" t="n">
-        <v>2369.275769110023</v>
+        <v>2467.523135730057</v>
       </c>
       <c r="AC7" t="n">
-        <v>2143.155415005588</v>
+        <v>2232.026190846452</v>
       </c>
       <c r="AD7" t="n">
-        <v>1731617.728056899</v>
+        <v>1803423.164972359</v>
       </c>
       <c r="AE7" t="n">
-        <v>2369275.769110023</v>
+        <v>2467523.135730057</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.366935912587934e-06</v>
+        <v>2.337308075912744e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.06527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2143155.415005588</v>
+        <v>2232026.190846452</v>
       </c>
     </row>
     <row r="8">
@@ -32965,28 +32965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1645.176917520427</v>
+        <v>1727.15483084518</v>
       </c>
       <c r="AB8" t="n">
-        <v>2251.003638634604</v>
+        <v>2363.16943625582</v>
       </c>
       <c r="AC8" t="n">
-        <v>2036.171010666766</v>
+        <v>2137.631861988698</v>
       </c>
       <c r="AD8" t="n">
-        <v>1645176.917520427</v>
+        <v>1727154.83084518</v>
       </c>
       <c r="AE8" t="n">
-        <v>2251003.638634604</v>
+        <v>2363169.43625582</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.393625191714285e-06</v>
+        <v>2.382943768901604e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>2036171.010666766</v>
+        <v>2137631.861988698</v>
       </c>
     </row>
     <row r="9">
@@ -33071,28 +33071,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1580.009934396466</v>
+        <v>1661.98784772122</v>
       </c>
       <c r="AB9" t="n">
-        <v>2161.83929736001</v>
+        <v>2274.005094981226</v>
       </c>
       <c r="AC9" t="n">
-        <v>1955.516388980481</v>
+        <v>2056.977240302413</v>
       </c>
       <c r="AD9" t="n">
-        <v>1580009.934396466</v>
+        <v>1661987.84772122</v>
       </c>
       <c r="AE9" t="n">
-        <v>2161839.29736001</v>
+        <v>2274005.094981226</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.413790424831973e-06</v>
+        <v>2.417424070270964e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.56666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1955516.388980481</v>
+        <v>2056977.240302413</v>
       </c>
     </row>
     <row r="10">
@@ -33177,28 +33177,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1535.294169442227</v>
+        <v>1607.014265503115</v>
       </c>
       <c r="AB10" t="n">
-        <v>2100.657215029298</v>
+        <v>2198.787814527135</v>
       </c>
       <c r="AC10" t="n">
-        <v>1900.17343871782</v>
+        <v>1988.938591526745</v>
       </c>
       <c r="AD10" t="n">
-        <v>1535294.169442227</v>
+        <v>1607014.265503115</v>
       </c>
       <c r="AE10" t="n">
-        <v>2100657.215029298</v>
+        <v>2198787.814527135</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.424910957801285e-06</v>
+        <v>2.436438942349655e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.45277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1900173.43871782</v>
+        <v>1988938.591526745</v>
       </c>
     </row>
     <row r="11">
@@ -33283,28 +33283,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1474.655206066248</v>
+        <v>1546.375302127136</v>
       </c>
       <c r="AB11" t="n">
-        <v>2017.688310136025</v>
+        <v>2115.818909633862</v>
       </c>
       <c r="AC11" t="n">
-        <v>1825.122969659971</v>
+        <v>1913.888122468896</v>
       </c>
       <c r="AD11" t="n">
-        <v>1474655.206066248</v>
+        <v>1546375.302127136</v>
       </c>
       <c r="AE11" t="n">
-        <v>2017688.310136025</v>
+        <v>2115818.909633862</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.440183156412475e-06</v>
+        <v>2.462552700004391e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.29861111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1825122.969659972</v>
+        <v>1913888.122468896</v>
       </c>
     </row>
     <row r="12">
@@ -33389,28 +33389,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1444.201788336113</v>
+        <v>1515.921884397001</v>
       </c>
       <c r="AB12" t="n">
-        <v>1976.020600487685</v>
+        <v>2074.151199985522</v>
       </c>
       <c r="AC12" t="n">
-        <v>1787.431967739471</v>
+        <v>1876.197120548396</v>
       </c>
       <c r="AD12" t="n">
-        <v>1444201.788336113</v>
+        <v>1515921.884397001</v>
       </c>
       <c r="AE12" t="n">
-        <v>1976020.600487685</v>
+        <v>2074151.199985522</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.447745118831608e-06</v>
+        <v>2.475482813017902e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.225</v>
       </c>
       <c r="AH12" t="n">
-        <v>1787431.967739471</v>
+        <v>1876197.120548396</v>
       </c>
     </row>
     <row r="13">
@@ -33495,28 +33495,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1446.068767494308</v>
+        <v>1517.788863555196</v>
       </c>
       <c r="AB13" t="n">
-        <v>1978.575083737234</v>
+        <v>2076.705683235071</v>
       </c>
       <c r="AC13" t="n">
-        <v>1789.742654692923</v>
+        <v>1878.507807501848</v>
       </c>
       <c r="AD13" t="n">
-        <v>1446068.767494308</v>
+        <v>1517788.863555196</v>
       </c>
       <c r="AE13" t="n">
-        <v>1978575.083737234</v>
+        <v>2076705.683235071</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.44818994015038e-06</v>
+        <v>2.476243407901049e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.22083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1789742.654692923</v>
+        <v>1878507.807501848</v>
       </c>
     </row>
     <row r="14">
@@ -33601,28 +33601,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1452.796567657652</v>
+        <v>1524.51666371854</v>
       </c>
       <c r="AB14" t="n">
-        <v>1987.780356730317</v>
+        <v>2085.910956228154</v>
       </c>
       <c r="AC14" t="n">
-        <v>1798.069389351228</v>
+        <v>1886.834542160153</v>
       </c>
       <c r="AD14" t="n">
-        <v>1452796.567657652</v>
+        <v>1524516.66371854</v>
       </c>
       <c r="AE14" t="n">
-        <v>1987780.356730317</v>
+        <v>2085910.956228154</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.448041666377456e-06</v>
+        <v>2.475989876273334e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.22083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1798069.389351228</v>
+        <v>1886834.542160153</v>
       </c>
     </row>
   </sheetData>
@@ -33898,28 +33898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>827.4483195007308</v>
+        <v>900.6044243554356</v>
       </c>
       <c r="AB2" t="n">
-        <v>1132.151295184403</v>
+        <v>1232.246705266176</v>
       </c>
       <c r="AC2" t="n">
-        <v>1024.100364556325</v>
+        <v>1114.642809184684</v>
       </c>
       <c r="AD2" t="n">
-        <v>827448.3195007308</v>
+        <v>900604.4243554357</v>
       </c>
       <c r="AE2" t="n">
-        <v>1132151.295184403</v>
+        <v>1232246.705266176</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467409009211794e-06</v>
+        <v>3.145333381333518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.03333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1024100.364556325</v>
+        <v>1114642.809184684</v>
       </c>
     </row>
   </sheetData>
@@ -34195,28 +34195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2460.617774774494</v>
+        <v>2563.778458500367</v>
       </c>
       <c r="AB2" t="n">
-        <v>3366.725794241464</v>
+        <v>3507.874792843376</v>
       </c>
       <c r="AC2" t="n">
-        <v>3045.410209668262</v>
+        <v>3173.088145947465</v>
       </c>
       <c r="AD2" t="n">
-        <v>2460617.774774494</v>
+        <v>2563778.458500367</v>
       </c>
       <c r="AE2" t="n">
-        <v>3366725.794241464</v>
+        <v>3507874.792843376</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.051976955104574e-06</v>
+        <v>1.938196568264336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.56111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>3045410.209668262</v>
+        <v>3173088.145947465</v>
       </c>
     </row>
     <row r="3">
@@ -34301,28 +34301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1484.477244012714</v>
+        <v>1559.417944467328</v>
       </c>
       <c r="AB3" t="n">
-        <v>2031.127255772113</v>
+        <v>2133.664428284484</v>
       </c>
       <c r="AC3" t="n">
-        <v>1837.279321186229</v>
+        <v>1930.030489865845</v>
       </c>
       <c r="AD3" t="n">
-        <v>1484477.244012714</v>
+        <v>1559417.944467328</v>
       </c>
       <c r="AE3" t="n">
-        <v>2031127.255772113</v>
+        <v>2133664.428284484</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.382822237787261e-06</v>
+        <v>2.547756681164607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.40138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1837279.321186229</v>
+        <v>1930030.489865845</v>
       </c>
     </row>
     <row r="4">
@@ -34407,28 +34407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1242.03259259022</v>
+        <v>1307.680389924327</v>
       </c>
       <c r="AB4" t="n">
-        <v>1699.403787792714</v>
+        <v>1789.226000281656</v>
       </c>
       <c r="AC4" t="n">
-        <v>1537.215075413973</v>
+        <v>1618.464782009237</v>
       </c>
       <c r="AD4" t="n">
-        <v>1242032.59259022</v>
+        <v>1307680.389924327</v>
       </c>
       <c r="AE4" t="n">
-        <v>1699403.787792714</v>
+        <v>1789226.000281656</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.498928356241057e-06</v>
+        <v>2.761674371328522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.13055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1537215.075413973</v>
+        <v>1618464.782009237</v>
       </c>
     </row>
     <row r="5">
@@ -34513,28 +34513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1121.374925496081</v>
+        <v>1196.315536442145</v>
       </c>
       <c r="AB5" t="n">
-        <v>1534.314644633923</v>
+        <v>1636.851694676746</v>
       </c>
       <c r="AC5" t="n">
-        <v>1387.88180837419</v>
+        <v>1480.632866272579</v>
       </c>
       <c r="AD5" t="n">
-        <v>1121374.925496081</v>
+        <v>1196315.536442145</v>
       </c>
       <c r="AE5" t="n">
-        <v>1534314.644633923</v>
+        <v>1636851.694676746</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.549061377851908e-06</v>
+        <v>2.854041081427428e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.64027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1387881.80837419</v>
+        <v>1480632.866272579</v>
       </c>
     </row>
     <row r="6">
@@ -34619,28 +34619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1121.918657451841</v>
+        <v>1196.859268397905</v>
       </c>
       <c r="AB6" t="n">
-        <v>1535.058602683554</v>
+        <v>1637.595652726377</v>
       </c>
       <c r="AC6" t="n">
-        <v>1388.554764111716</v>
+        <v>1481.305822010105</v>
       </c>
       <c r="AD6" t="n">
-        <v>1121918.657451841</v>
+        <v>1196859.268397904</v>
       </c>
       <c r="AE6" t="n">
-        <v>1535058.602683554</v>
+        <v>1637595.652726377</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.551510874021819e-06</v>
+        <v>2.858554112865485e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.61805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1388554.764111716</v>
+        <v>1481305.822010105</v>
       </c>
     </row>
   </sheetData>
@@ -34916,28 +34916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3586.834754998684</v>
+        <v>3713.028349275843</v>
       </c>
       <c r="AB2" t="n">
-        <v>4907.665551770853</v>
+        <v>5080.329194729335</v>
       </c>
       <c r="AC2" t="n">
-        <v>4439.284839461519</v>
+        <v>4595.469706670983</v>
       </c>
       <c r="AD2" t="n">
-        <v>3586834.754998684</v>
+        <v>3713028.349275843</v>
       </c>
       <c r="AE2" t="n">
-        <v>4907665.551770853</v>
+        <v>5080329.194729335</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.744723889047281e-07</v>
+        <v>1.562181105286945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.97083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4439284.839461519</v>
+        <v>4595469.706670983</v>
       </c>
     </row>
     <row r="3">
@@ -35022,28 +35022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1905.501149631507</v>
+        <v>1992.754435599036</v>
       </c>
       <c r="AB3" t="n">
-        <v>2607.190737703556</v>
+        <v>2726.574532907633</v>
       </c>
       <c r="AC3" t="n">
-        <v>2358.36411291231</v>
+        <v>2466.354086258319</v>
       </c>
       <c r="AD3" t="n">
-        <v>1905501.149631507</v>
+        <v>1992754.435599037</v>
       </c>
       <c r="AE3" t="n">
-        <v>2607190.737703556</v>
+        <v>2726574.532907633</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.249605635924987e-06</v>
+        <v>2.232329274509284e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.47361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2358364.11291231</v>
+        <v>2466354.086258319</v>
       </c>
     </row>
     <row r="4">
@@ -35128,28 +35128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1570.628152126613</v>
+        <v>1648.338266053833</v>
       </c>
       <c r="AB4" t="n">
-        <v>2149.002728963375</v>
+        <v>2255.329135166864</v>
       </c>
       <c r="AC4" t="n">
-        <v>1943.904924655383</v>
+        <v>2040.083687880859</v>
       </c>
       <c r="AD4" t="n">
-        <v>1570628.152126614</v>
+        <v>1648338.266053833</v>
       </c>
       <c r="AE4" t="n">
-        <v>2149002.728963376</v>
+        <v>2255329.135166863</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.380886550116905e-06</v>
+        <v>2.466853047057755e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1943904.924655383</v>
+        <v>2040083.687880859</v>
       </c>
     </row>
     <row r="5">
@@ -35234,28 +35234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1414.567791103927</v>
+        <v>1482.564230298795</v>
       </c>
       <c r="AB5" t="n">
-        <v>1935.474058114919</v>
+        <v>2028.50978601252</v>
       </c>
       <c r="AC5" t="n">
-        <v>1750.755130463332</v>
+        <v>1834.91165906685</v>
       </c>
       <c r="AD5" t="n">
-        <v>1414567.791103927</v>
+        <v>1482564.230298795</v>
       </c>
       <c r="AE5" t="n">
-        <v>1935474.058114919</v>
+        <v>2028509.78601252</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.449907294224992e-06</v>
+        <v>2.590153569391622e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.05972222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>1750755.130463332</v>
+        <v>1834911.65906685</v>
       </c>
     </row>
     <row r="6">
@@ -35340,28 +35340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1294.200259561228</v>
+        <v>1371.825032633875</v>
       </c>
       <c r="AB6" t="n">
-        <v>1770.781891217485</v>
+        <v>1876.991530298775</v>
       </c>
       <c r="AC6" t="n">
-        <v>1601.780952827681</v>
+        <v>1697.854093021218</v>
       </c>
       <c r="AD6" t="n">
-        <v>1294200.259561228</v>
+        <v>1371825.032633875</v>
       </c>
       <c r="AE6" t="n">
-        <v>1770781.891217485</v>
+        <v>1876991.530298775</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.493143523449875e-06</v>
+        <v>2.667391937596209e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1601780.952827681</v>
+        <v>1697854.093021218</v>
       </c>
     </row>
     <row r="7">
@@ -35446,28 +35446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1230.91816276273</v>
+        <v>1298.829261103026</v>
       </c>
       <c r="AB7" t="n">
-        <v>1684.196534568706</v>
+        <v>1777.115495344108</v>
       </c>
       <c r="AC7" t="n">
-        <v>1523.45918109415</v>
+        <v>1607.510086665729</v>
       </c>
       <c r="AD7" t="n">
-        <v>1230918.16276273</v>
+        <v>1298829.261103026</v>
       </c>
       <c r="AE7" t="n">
-        <v>1684196.534568706</v>
+        <v>1777115.495344108</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.514368581432999e-06</v>
+        <v>2.705308954714824e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.41944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1523459.18109415</v>
+        <v>1607510.086665729</v>
       </c>
     </row>
     <row r="8">
@@ -35552,28 +35552,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1233.070811957633</v>
+        <v>1300.981910297929</v>
       </c>
       <c r="AB8" t="n">
-        <v>1687.141884165351</v>
+        <v>1780.060844940754</v>
       </c>
       <c r="AC8" t="n">
-        <v>1526.123430659116</v>
+        <v>1610.174336230695</v>
       </c>
       <c r="AD8" t="n">
-        <v>1233070.811957633</v>
+        <v>1300981.910297929</v>
       </c>
       <c r="AE8" t="n">
-        <v>1687141.884165352</v>
+        <v>1780060.844940754</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.51531191734336e-06</v>
+        <v>2.706994155475651e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1526123.430659116</v>
+        <v>1610174.336230695</v>
       </c>
     </row>
   </sheetData>
